--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -418,16 +418,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8241175641305745</v>
+        <v>0.8241175641304039</v>
       </c>
       <c r="E2">
-        <v>2.198591849705053</v>
+        <v>2.198591849704968</v>
       </c>
       <c r="F2">
         <v>12.85763027228111</v>
       </c>
       <c r="G2">
-        <v>11.51772553881585</v>
+        <v>11.51772553881571</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6585680385356909</v>
+        <v>0.658568038535492</v>
       </c>
       <c r="E3">
-        <v>1.740930616287187</v>
+        <v>1.740930616287216</v>
       </c>
       <c r="F3">
-        <v>10.37423901461264</v>
+        <v>10.37423901461258</v>
       </c>
       <c r="G3">
         <v>9.285023622440121</v>
@@ -494,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5718958148434297</v>
+        <v>0.5718958148437991</v>
       </c>
       <c r="E4">
-        <v>1.505047473162037</v>
+        <v>1.505047473162051</v>
       </c>
       <c r="F4">
         <v>9.054954858797373</v>
       </c>
       <c r="G4">
-        <v>8.100347739986518</v>
+        <v>8.100347739986546</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5390160583319812</v>
+        <v>0.5390160583320096</v>
       </c>
       <c r="E5">
-        <v>1.416163914079902</v>
+        <v>1.416163914079831</v>
       </c>
       <c r="F5">
-        <v>8.551310715363968</v>
+        <v>8.551310715363911</v>
       </c>
       <c r="G5">
-        <v>7.648324680317927</v>
+        <v>7.648324680317899</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5336776238240475</v>
+        <v>0.5336776238234506</v>
       </c>
       <c r="E6">
-        <v>1.40176239944762</v>
+        <v>1.401762399447634</v>
       </c>
       <c r="F6">
-        <v>8.469380123989708</v>
+        <v>8.469380123989794</v>
       </c>
       <c r="G6">
-        <v>7.574803151542483</v>
+        <v>7.57480315154254</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5714437515933639</v>
+        <v>0.5714437515931365</v>
       </c>
       <c r="E7">
-        <v>1.503823243596329</v>
+        <v>1.503823243596287</v>
       </c>
       <c r="F7">
-        <v>9.048041740754257</v>
+        <v>9.048041740754286</v>
       </c>
       <c r="G7">
-        <v>8.094142340856735</v>
+        <v>8.094142340856791</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0.7628305373098669</v>
       </c>
       <c r="E8">
-        <v>2.027992262057523</v>
+        <v>2.027992262057552</v>
       </c>
       <c r="F8">
-        <v>11.94415552703171</v>
+        <v>11.94415552703168</v>
       </c>
       <c r="G8">
         <v>10.69602271651524</v>
@@ -684,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E9">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F9">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G9">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -722,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E10">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F10">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G10">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E11">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F11">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G11">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E12">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F12">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G12">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E13">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F13">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G13">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E14">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F14">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G14">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E15">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F15">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G15">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E16">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F16">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G16">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E17">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F17">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G17">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E18">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F18">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G18">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E19">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F19">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G19">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E20">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F20">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G20">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E21">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F21">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G21">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E22">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F22">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G22">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1216,16 +1216,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E23">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F23">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G23">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E24">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F24">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G24">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.53044198750186</v>
+        <v>1.530441987502229</v>
       </c>
       <c r="E25">
-        <v>4.319408256480457</v>
+        <v>4.319408256480543</v>
       </c>
       <c r="F25">
-        <v>22.75898226792492</v>
+        <v>22.75898226792521</v>
       </c>
       <c r="G25">
-        <v>20.47100522768781</v>
+        <v>20.47100522768807</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -418,16 +418,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8241175641304039</v>
+        <v>0.8241175641305745</v>
       </c>
       <c r="E2">
-        <v>2.198591849704968</v>
+        <v>2.198591849705053</v>
       </c>
       <c r="F2">
         <v>12.85763027228111</v>
       </c>
       <c r="G2">
-        <v>11.51772553881571</v>
+        <v>11.51772553881585</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.658568038535492</v>
+        <v>0.6585680385356909</v>
       </c>
       <c r="E3">
-        <v>1.740930616287216</v>
+        <v>1.740930616287187</v>
       </c>
       <c r="F3">
-        <v>10.37423901461258</v>
+        <v>10.37423901461264</v>
       </c>
       <c r="G3">
         <v>9.285023622440121</v>
@@ -494,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5718958148437991</v>
+        <v>0.5718958148434297</v>
       </c>
       <c r="E4">
-        <v>1.505047473162051</v>
+        <v>1.505047473162037</v>
       </c>
       <c r="F4">
         <v>9.054954858797373</v>
       </c>
       <c r="G4">
-        <v>8.100347739986546</v>
+        <v>8.100347739986518</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5390160583320096</v>
+        <v>0.5390160583319812</v>
       </c>
       <c r="E5">
-        <v>1.416163914079831</v>
+        <v>1.416163914079902</v>
       </c>
       <c r="F5">
-        <v>8.551310715363911</v>
+        <v>8.551310715363968</v>
       </c>
       <c r="G5">
-        <v>7.648324680317899</v>
+        <v>7.648324680317927</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5336776238234506</v>
+        <v>0.5336776238240475</v>
       </c>
       <c r="E6">
-        <v>1.401762399447634</v>
+        <v>1.40176239944762</v>
       </c>
       <c r="F6">
-        <v>8.469380123989794</v>
+        <v>8.469380123989708</v>
       </c>
       <c r="G6">
-        <v>7.57480315154254</v>
+        <v>7.574803151542483</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5714437515931365</v>
+        <v>0.5714437515933639</v>
       </c>
       <c r="E7">
-        <v>1.503823243596287</v>
+        <v>1.503823243596329</v>
       </c>
       <c r="F7">
-        <v>9.048041740754286</v>
+        <v>9.048041740754257</v>
       </c>
       <c r="G7">
-        <v>8.094142340856791</v>
+        <v>8.094142340856735</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0.7628305373098669</v>
       </c>
       <c r="E8">
-        <v>2.027992262057552</v>
+        <v>2.027992262057523</v>
       </c>
       <c r="F8">
-        <v>11.94415552703168</v>
+        <v>11.94415552703171</v>
       </c>
       <c r="G8">
         <v>10.69602271651524</v>
@@ -684,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E9">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F9">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G9">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -722,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E10">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F10">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G10">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E11">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F11">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G11">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E12">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F12">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G12">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E13">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F13">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G13">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E14">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F14">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G14">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E15">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F15">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G15">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E16">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F16">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G16">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E17">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F17">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G17">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E18">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F18">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G18">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E19">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F19">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G19">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E20">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F20">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G20">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E21">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F21">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G21">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E22">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F22">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G22">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1216,16 +1216,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E23">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F23">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G23">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E24">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F24">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G24">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.530441987502229</v>
+        <v>1.53044198750186</v>
       </c>
       <c r="E25">
-        <v>4.319408256480543</v>
+        <v>4.319408256480457</v>
       </c>
       <c r="F25">
-        <v>22.75898226792521</v>
+        <v>22.75898226792492</v>
       </c>
       <c r="G25">
-        <v>20.47100522768807</v>
+        <v>20.47100522768781</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8241175641305745</v>
+        <v>0.8201457697198009</v>
       </c>
       <c r="E2">
-        <v>2.198591849705053</v>
+        <v>2.195360547802608</v>
       </c>
       <c r="F2">
-        <v>12.85763027228111</v>
+        <v>12.81389088777291</v>
       </c>
       <c r="G2">
-        <v>11.51772553881585</v>
+        <v>3.887684269679312</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.583803107653068</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,19 +462,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6585680385356909</v>
+        <v>0.6556559683006071</v>
       </c>
       <c r="E3">
-        <v>1.740930616287187</v>
+        <v>1.739157178970871</v>
       </c>
       <c r="F3">
-        <v>10.37423901461264</v>
+        <v>10.34278433075087</v>
       </c>
       <c r="G3">
-        <v>9.285023622440121</v>
+        <v>3.135042190269274</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.117024350031784</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -494,19 +503,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5718958148434297</v>
+        <v>0.5694616936435182</v>
       </c>
       <c r="E4">
-        <v>1.505047473162037</v>
+        <v>1.503793979665176</v>
       </c>
       <c r="F4">
-        <v>9.054954858797373</v>
+        <v>9.028931586348506</v>
       </c>
       <c r="G4">
-        <v>8.100347739986518</v>
+        <v>2.73503726209708</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.338416763183432</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5390160583319812</v>
+        <v>0.5367526274731347</v>
       </c>
       <c r="E5">
-        <v>1.416163914079902</v>
+        <v>1.415074752969005</v>
       </c>
       <c r="F5">
-        <v>8.551310715363968</v>
+        <v>8.52720751147055</v>
       </c>
       <c r="G5">
-        <v>7.648324680317927</v>
+        <v>2.582294369571741</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.041312872404461</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,19 +585,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5336776238240475</v>
+        <v>0.5314414102792853</v>
       </c>
       <c r="E6">
-        <v>1.40176239944762</v>
+        <v>1.400698396188758</v>
       </c>
       <c r="F6">
-        <v>8.469380123989708</v>
+        <v>8.445582058529965</v>
       </c>
       <c r="G6">
-        <v>7.574803151542483</v>
+        <v>2.557444460524295</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.992988788385389</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5714437515933639</v>
+        <v>0.569012013980597</v>
       </c>
       <c r="E7">
-        <v>1.503823243596329</v>
+        <v>1.502572122667772</v>
       </c>
       <c r="F7">
-        <v>9.048041740754257</v>
+        <v>9.022045355700044</v>
       </c>
       <c r="G7">
-        <v>8.094142340856735</v>
+        <v>2.732940844427617</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.334338133214175</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7628305373098669</v>
+        <v>0.7592778041835402</v>
       </c>
       <c r="E8">
-        <v>2.027992262057523</v>
+        <v>2.025386392220895</v>
       </c>
       <c r="F8">
-        <v>11.94415552703171</v>
+        <v>11.90530917820504</v>
       </c>
       <c r="G8">
-        <v>10.69602271651524</v>
+        <v>3.610883155678522</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.044126497356956</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -684,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E9">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F9">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G9">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -722,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E10">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F10">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G10">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -760,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E11">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F11">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G11">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E12">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F12">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G12">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E13">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F13">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G13">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -874,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E14">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F14">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G14">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -912,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E15">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F15">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G15">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -950,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E16">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F16">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G16">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -988,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E17">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F17">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G17">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1026,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E18">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F18">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G18">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1064,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E19">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F19">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G19">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1102,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E20">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F20">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G20">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1140,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E21">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F21">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G21">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1178,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E22">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F22">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G22">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1216,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E23">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F23">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G23">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1254,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E24">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F24">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G24">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1292,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.53044198750186</v>
+        <v>1.510788301307912</v>
       </c>
       <c r="E25">
-        <v>4.319408256480457</v>
+        <v>4.271015934405469</v>
       </c>
       <c r="F25">
-        <v>22.75898226792492</v>
+        <v>22.52411289834032</v>
       </c>
       <c r="G25">
-        <v>20.47100522768781</v>
+        <v>6.857214410484175</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13.38478741300023</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2052905568516223</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.07066919193125898</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06915004970564453</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.184900811322166</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9107235915280967</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.602894710565792</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2720579766899647</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0852815165189682</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.179185574828381</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5373034419520835</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8745781400162382</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.1790053608736457</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.06419217724588577</v>
+      </c>
+      <c r="E3">
+        <v>0.06478903838648975</v>
+      </c>
+      <c r="F3">
+        <v>1.115661438700926</v>
+      </c>
+      <c r="G3">
+        <v>0.8502591408885678</v>
+      </c>
+      <c r="H3">
+        <v>0.5824851348471185</v>
+      </c>
+      <c r="I3">
+        <v>0.2827693597591576</v>
+      </c>
+      <c r="J3">
+        <v>0.08164424884309796</v>
+      </c>
+      <c r="K3">
+        <v>1.888515570672922</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.469042060135358</v>
+      </c>
+      <c r="N3">
+        <v>0.9218055824763596</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.1628471113932903</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.06026306679847693</v>
+      </c>
+      <c r="E4">
+        <v>0.06219351311362331</v>
+      </c>
+      <c r="F4">
+        <v>1.075340774206794</v>
+      </c>
+      <c r="G4">
+        <v>0.8150439638760787</v>
+      </c>
+      <c r="H4">
+        <v>0.5710475995436894</v>
+      </c>
+      <c r="I4">
+        <v>0.2898416857096269</v>
+      </c>
+      <c r="J4">
+        <v>0.07954541390954262</v>
+      </c>
+      <c r="K4">
+        <v>1.711304029917272</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.4275457471933848</v>
+      </c>
+      <c r="N4">
+        <v>0.9520144672069382</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.1562565438497359</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.05867311624777471</v>
+      </c>
+      <c r="E5">
+        <v>0.06115533195625034</v>
+      </c>
+      <c r="F5">
+        <v>1.059426623991754</v>
+      </c>
+      <c r="G5">
+        <v>0.8011411900148033</v>
+      </c>
+      <c r="H5">
+        <v>0.566646900410035</v>
+      </c>
+      <c r="I5">
+        <v>0.292844734227188</v>
+      </c>
+      <c r="J5">
+        <v>0.07872213839126019</v>
+      </c>
+      <c r="K5">
+        <v>1.639356726843374</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.4107280686579315</v>
+      </c>
+      <c r="N5">
+        <v>0.9646218976672154</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.155161793201259</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.05840975906311741</v>
+      </c>
+      <c r="E6">
+        <v>0.06098408937309152</v>
+      </c>
+      <c r="F6">
+        <v>1.056814337957704</v>
+      </c>
+      <c r="G6">
+        <v>0.7988587671022032</v>
+      </c>
+      <c r="H6">
+        <v>0.5659314634373658</v>
+      </c>
+      <c r="I6">
+        <v>0.2933505959837586</v>
+      </c>
+      <c r="J6">
+        <v>0.07858731733458768</v>
+      </c>
+      <c r="K6">
+        <v>1.627424728307716</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.4079407415324852</v>
+      </c>
+      <c r="N6">
+        <v>0.9667330836128434</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.162758254269562</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.06024157990083978</v>
+      </c>
+      <c r="E7">
+        <v>0.06217943427927253</v>
+      </c>
+      <c r="F7">
+        <v>1.075124101815362</v>
+      </c>
+      <c r="G7">
+        <v>0.8148546952301956</v>
+      </c>
+      <c r="H7">
+        <v>0.5709872157335951</v>
+      </c>
+      <c r="I7">
+        <v>0.2898817004743091</v>
+      </c>
+      <c r="J7">
+        <v>0.07953418358988884</v>
+      </c>
+      <c r="K7">
+        <v>1.710332701789866</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.427318579673063</v>
+      </c>
+      <c r="N7">
+        <v>0.9521833021673674</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.1962306406657746</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.06842548027670858</v>
+      </c>
+      <c r="E8">
+        <v>0.06762861299636214</v>
+      </c>
+      <c r="F8">
+        <v>1.160550571968201</v>
+      </c>
+      <c r="G8">
+        <v>0.889458693194058</v>
+      </c>
+      <c r="H8">
+        <v>0.5956211569220358</v>
+      </c>
+      <c r="I8">
+        <v>0.2756462166112144</v>
+      </c>
+      <c r="J8">
+        <v>0.08399836484905165</v>
+      </c>
+      <c r="K8">
+        <v>2.07867011641855</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.5136728106668471</v>
+      </c>
+      <c r="N8">
+        <v>0.8906061960142768</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.2617781786688056</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.08489415592778471</v>
+      </c>
+      <c r="E9">
+        <v>0.07902178057409159</v>
+      </c>
+      <c r="F9">
+        <v>1.347142528395693</v>
+      </c>
+      <c r="G9">
+        <v>1.052497673290233</v>
+      </c>
+      <c r="H9">
+        <v>0.6533323530748163</v>
+      </c>
+      <c r="I9">
+        <v>0.2518314536058739</v>
+      </c>
+      <c r="J9">
+        <v>0.09390644036152196</v>
+      </c>
+      <c r="K9">
+        <v>2.813406002839542</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.6869214633833849</v>
+      </c>
+      <c r="N9">
+        <v>0.7798173831077415</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.3099725873145758</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.0973119796879871</v>
+      </c>
+      <c r="E10">
+        <v>0.08790711819061414</v>
+      </c>
+      <c r="F10">
+        <v>1.498377241377142</v>
+      </c>
+      <c r="G10">
+        <v>1.18487260370884</v>
+      </c>
+      <c r="H10">
+        <v>0.7025552112055493</v>
+      </c>
+      <c r="I10">
+        <v>0.2370836155634279</v>
+      </c>
+      <c r="J10">
+        <v>0.1020198787726088</v>
+      </c>
+      <c r="K10">
+        <v>3.364482991318425</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.8175076336671125</v>
+      </c>
+      <c r="N10">
+        <v>0.7050180791672052</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0.3319277381621077</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.1030454360473172</v>
+      </c>
+      <c r="E11">
+        <v>0.09208132106310529</v>
+      </c>
+      <c r="F11">
+        <v>1.570863920584486</v>
+      </c>
+      <c r="G11">
+        <v>1.248409435463799</v>
+      </c>
+      <c r="H11">
+        <v>0.7266955910442334</v>
+      </c>
+      <c r="I11">
+        <v>0.2310306807358842</v>
+      </c>
+      <c r="J11">
+        <v>0.1059237030391316</v>
+      </c>
+      <c r="K11">
+        <v>3.618534475402214</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.8778559016132448</v>
+      </c>
+      <c r="N11">
+        <v>0.6725490487247701</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0.3402479743115947</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.1052300586317472</v>
+      </c>
+      <c r="E12">
+        <v>0.09368282453442589</v>
+      </c>
+      <c r="F12">
+        <v>1.598899411271631</v>
+      </c>
+      <c r="G12">
+        <v>1.272999722715923</v>
+      </c>
+      <c r="H12">
+        <v>0.7361127817929116</v>
+      </c>
+      <c r="I12">
+        <v>0.2288383044759534</v>
+      </c>
+      <c r="J12">
+        <v>0.10743549282153</v>
+      </c>
+      <c r="K12">
+        <v>3.715303251374053</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.9008643429020111</v>
+      </c>
+      <c r="N12">
+        <v>0.660489582584507</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0.338455752429212</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.1047589387709564</v>
+      </c>
+      <c r="E13">
+        <v>0.09333695550252585</v>
+      </c>
+      <c r="F13">
+        <v>1.592834445100465</v>
+      </c>
+      <c r="G13">
+        <v>1.267679284559648</v>
+      </c>
+      <c r="H13">
+        <v>0.7340719464239669</v>
+      </c>
+      <c r="I13">
+        <v>0.229305945413401</v>
+      </c>
+      <c r="J13">
+        <v>0.1071083637139267</v>
+      </c>
+      <c r="K13">
+        <v>3.694435859726013</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.8959017912197709</v>
+      </c>
+      <c r="N13">
+        <v>0.6630761151151816</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0.3326121120083769</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.1032248879164825</v>
+      </c>
+      <c r="E14">
+        <v>0.09221264946713248</v>
+      </c>
+      <c r="F14">
+        <v>1.573158327988168</v>
+      </c>
+      <c r="G14">
+        <v>1.250421544952388</v>
+      </c>
+      <c r="H14">
+        <v>0.7274646754297862</v>
+      </c>
+      <c r="I14">
+        <v>0.2308482812335271</v>
+      </c>
+      <c r="J14">
+        <v>0.1060473902525345</v>
+      </c>
+      <c r="K14">
+        <v>3.62648388479596</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.8797455744001041</v>
+      </c>
+      <c r="N14">
+        <v>0.6715521108225868</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0.3290335892793195</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.1022870354001242</v>
+      </c>
+      <c r="E15">
+        <v>0.09152674772711578</v>
+      </c>
+      <c r="F15">
+        <v>1.561184242193093</v>
+      </c>
+      <c r="G15">
+        <v>1.239921393261852</v>
+      </c>
+      <c r="H15">
+        <v>0.7234542011111387</v>
+      </c>
+      <c r="I15">
+        <v>0.2318061630680681</v>
+      </c>
+      <c r="J15">
+        <v>0.1054019649873155</v>
+      </c>
+      <c r="K15">
+        <v>3.584937458732895</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.8698703514153152</v>
+      </c>
+      <c r="N15">
+        <v>0.6767749870572874</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0.3085385467181965</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.09693909701668701</v>
+      </c>
+      <c r="E16">
+        <v>0.08763713613428337</v>
+      </c>
+      <c r="F16">
+        <v>1.493718965650999</v>
+      </c>
+      <c r="G16">
+        <v>1.180791530864298</v>
+      </c>
+      <c r="H16">
+        <v>0.7010147957375352</v>
+      </c>
+      <c r="I16">
+        <v>0.2374928420594635</v>
+      </c>
+      <c r="J16">
+        <v>0.1017692801515366</v>
+      </c>
+      <c r="K16">
+        <v>3.347954595726037</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.8135844062743516</v>
+      </c>
+      <c r="N16">
+        <v>0.7071723417417282</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0.29597475094603</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.09368087173527329</v>
+      </c>
+      <c r="E17">
+        <v>0.08528609103181495</v>
+      </c>
+      <c r="F17">
+        <v>1.453314314245191</v>
+      </c>
+      <c r="G17">
+        <v>1.145403564462441</v>
+      </c>
+      <c r="H17">
+        <v>0.6877134332758033</v>
+      </c>
+      <c r="I17">
+        <v>0.2411531649075123</v>
+      </c>
+      <c r="J17">
+        <v>0.09959726091990717</v>
+      </c>
+      <c r="K17">
+        <v>3.203490341661848</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.7793103276305686</v>
+      </c>
+      <c r="N17">
+        <v>0.7262272082437349</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0.2887512159279737</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.09181469643463913</v>
+      </c>
+      <c r="E18">
+        <v>0.08394616006973621</v>
+      </c>
+      <c r="F18">
+        <v>1.430418253240987</v>
+      </c>
+      <c r="G18">
+        <v>1.125358281447404</v>
+      </c>
+      <c r="H18">
+        <v>0.6802258548996178</v>
+      </c>
+      <c r="I18">
+        <v>0.2433198780615022</v>
+      </c>
+      <c r="J18">
+        <v>0.09836783386773362</v>
+      </c>
+      <c r="K18">
+        <v>3.120709648037234</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.7596843267851554</v>
+      </c>
+      <c r="N18">
+        <v>0.7373329007334286</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0.2863058841009121</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.09118415441373173</v>
+      </c>
+      <c r="E19">
+        <v>0.08349454707875736</v>
+      </c>
+      <c r="F19">
+        <v>1.422723436253847</v>
+      </c>
+      <c r="G19">
+        <v>1.118622814110083</v>
+      </c>
+      <c r="H19">
+        <v>0.677717981912167</v>
+      </c>
+      <c r="I19">
+        <v>0.2440638754808084</v>
+      </c>
+      <c r="J19">
+        <v>0.09795489863552831</v>
+      </c>
+      <c r="K19">
+        <v>3.092732641867769</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.7530537517689595</v>
+      </c>
+      <c r="N19">
+        <v>0.7411177988631099</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0.2973118831471453</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.09402689160480548</v>
+      </c>
+      <c r="E20">
+        <v>0.08553507525931892</v>
+      </c>
+      <c r="F20">
+        <v>1.457579505513053</v>
+      </c>
+      <c r="G20">
+        <v>1.149138330758518</v>
+      </c>
+      <c r="H20">
+        <v>0.6891123456352091</v>
+      </c>
+      <c r="I20">
+        <v>0.2407571254579786</v>
+      </c>
+      <c r="J20">
+        <v>0.0998264005303966</v>
+      </c>
+      <c r="K20">
+        <v>3.218836022236701</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.7829496614790301</v>
+      </c>
+      <c r="N20">
+        <v>0.7241836086288673</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0.3343283449415537</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.1036750986091377</v>
+      </c>
+      <c r="E21">
+        <v>0.09254230506909167</v>
+      </c>
+      <c r="F21">
+        <v>1.578921296897406</v>
+      </c>
+      <c r="G21">
+        <v>1.255475723573028</v>
+      </c>
+      <c r="H21">
+        <v>0.7293977025834124</v>
+      </c>
+      <c r="I21">
+        <v>0.2303925077472719</v>
+      </c>
+      <c r="J21">
+        <v>0.1063580906867969</v>
+      </c>
+      <c r="K21">
+        <v>3.646427007597367</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.8844866473486306</v>
+      </c>
+      <c r="N21">
+        <v>0.6690560049190619</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0.3585583793660305</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.1100600763398774</v>
+      </c>
+      <c r="E22">
+        <v>0.09724426319372625</v>
+      </c>
+      <c r="F22">
+        <v>1.661672549870644</v>
+      </c>
+      <c r="G22">
+        <v>1.328092333741154</v>
+      </c>
+      <c r="H22">
+        <v>0.7573467247531198</v>
+      </c>
+      <c r="I22">
+        <v>0.2242027981845602</v>
+      </c>
+      <c r="J22">
+        <v>0.1108236856352534</v>
+      </c>
+      <c r="K22">
+        <v>3.929219005476</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.9517661202058108</v>
+      </c>
+      <c r="N22">
+        <v>0.6344078913707438</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0.3456222801281683</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.1066445651070183</v>
+      </c>
+      <c r="E23">
+        <v>0.09472290756894353</v>
+      </c>
+      <c r="F23">
+        <v>1.617171423485232</v>
+      </c>
+      <c r="G23">
+        <v>1.289031293435272</v>
+      </c>
+      <c r="H23">
+        <v>0.7422729380999442</v>
+      </c>
+      <c r="I23">
+        <v>0.2274510136498691</v>
+      </c>
+      <c r="J23">
+        <v>0.1084212956334483</v>
+      </c>
+      <c r="K23">
+        <v>3.777953410671671</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.915766555251146</v>
+      </c>
+      <c r="N23">
+        <v>0.6527696960324132</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0.2967073671886311</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.09387043424969477</v>
+      </c>
+      <c r="E24">
+        <v>0.08542247313180695</v>
+      </c>
+      <c r="F24">
+        <v>1.455650179134878</v>
+      </c>
+      <c r="G24">
+        <v>1.147448913273735</v>
+      </c>
+      <c r="H24">
+        <v>0.6884794021985101</v>
+      </c>
+      <c r="I24">
+        <v>0.2409359811078353</v>
+      </c>
+      <c r="J24">
+        <v>0.09972274662458602</v>
+      </c>
+      <c r="K24">
+        <v>3.211897393490688</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.7813040752499631</v>
+      </c>
+      <c r="N24">
+        <v>0.7251070512057058</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.2440464714828892</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.08038783866478383</v>
+      </c>
+      <c r="E25">
+        <v>0.07585565078047907</v>
+      </c>
+      <c r="F25">
+        <v>1.294374734396058</v>
+      </c>
+      <c r="G25">
+        <v>1.006364427633869</v>
+      </c>
+      <c r="H25">
+        <v>0.6366059950180727</v>
+      </c>
+      <c r="I25">
+        <v>0.2578102516890031</v>
+      </c>
+      <c r="J25">
+        <v>0.09108964270564712</v>
+      </c>
+      <c r="K25">
+        <v>2.612947385685686</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.6395444090526539</v>
+      </c>
+      <c r="N25">
+        <v>0.8086704387177619</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2052905568516223</v>
+        <v>0.06747606590576538</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07066919193125898</v>
+        <v>0.1186082610989203</v>
       </c>
       <c r="E2">
-        <v>0.06915004970564453</v>
+        <v>0.1294418084900464</v>
       </c>
       <c r="F2">
-        <v>1.184900811322166</v>
+        <v>1.916543709514201</v>
       </c>
       <c r="G2">
-        <v>0.9107235915280967</v>
+        <v>1.275509177230489</v>
       </c>
       <c r="H2">
-        <v>0.602894710565792</v>
+        <v>1.201867251022534</v>
       </c>
       <c r="I2">
-        <v>0.2720579766899647</v>
+        <v>0.5977971328830698</v>
       </c>
       <c r="J2">
-        <v>0.0852815165189682</v>
+        <v>0.1679489714918105</v>
       </c>
       <c r="K2">
-        <v>2.179185574828381</v>
+        <v>0.9336118786398231</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5373034419520835</v>
+        <v>0.3570140207309791</v>
       </c>
       <c r="N2">
-        <v>0.8745781400162382</v>
+        <v>1.827886918869599</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1790053608736457</v>
+        <v>0.05917170631208535</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06419217724588577</v>
+        <v>0.1173768301360809</v>
       </c>
       <c r="E3">
-        <v>0.06478903838648975</v>
+        <v>0.1290353841054745</v>
       </c>
       <c r="F3">
-        <v>1.115661438700926</v>
+        <v>1.912345820883672</v>
       </c>
       <c r="G3">
-        <v>0.8502591408885678</v>
+        <v>1.269815302266551</v>
       </c>
       <c r="H3">
-        <v>0.5824851348471185</v>
+        <v>1.204628491038235</v>
       </c>
       <c r="I3">
-        <v>0.2827693597591576</v>
+        <v>0.6040713770614285</v>
       </c>
       <c r="J3">
-        <v>0.08164424884309796</v>
+        <v>0.1680844295775081</v>
       </c>
       <c r="K3">
-        <v>1.888515570672922</v>
+        <v>0.8545992344685658</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.469042060135358</v>
+        <v>0.3399944152535355</v>
       </c>
       <c r="N3">
-        <v>0.9218055824763596</v>
+        <v>1.847432209408699</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1628471113932903</v>
+        <v>0.054067404551148</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06026306679847693</v>
+        <v>0.1166581953051775</v>
       </c>
       <c r="E4">
-        <v>0.06219351311362331</v>
+        <v>0.1288370127842953</v>
       </c>
       <c r="F4">
-        <v>1.075340774206794</v>
+        <v>1.910801666421847</v>
       </c>
       <c r="G4">
-        <v>0.8150439638760787</v>
+        <v>1.26711460737495</v>
       </c>
       <c r="H4">
-        <v>0.5710475995436894</v>
+        <v>1.206888502574671</v>
       </c>
       <c r="I4">
-        <v>0.2898416857096269</v>
+        <v>0.6081821138498107</v>
       </c>
       <c r="J4">
-        <v>0.07954541390954262</v>
+        <v>0.1682418537829946</v>
       </c>
       <c r="K4">
-        <v>1.711304029917272</v>
+        <v>0.8063986839827351</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4275457471933848</v>
+        <v>0.3297090373926324</v>
       </c>
       <c r="N4">
-        <v>0.9520144672069382</v>
+        <v>1.860035993907022</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1562565438497359</v>
+        <v>0.05198617059970445</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05867311624777471</v>
+        <v>0.1163748117610481</v>
       </c>
       <c r="E5">
-        <v>0.06115533195625034</v>
+        <v>0.1287690655726479</v>
       </c>
       <c r="F5">
-        <v>1.059426623991754</v>
+        <v>1.91043215119754</v>
       </c>
       <c r="G5">
-        <v>0.8011411900148033</v>
+        <v>1.266213774609568</v>
       </c>
       <c r="H5">
-        <v>0.566646900410035</v>
+        <v>1.207951445479182</v>
       </c>
       <c r="I5">
-        <v>0.292844734227188</v>
+        <v>0.6099222312732646</v>
       </c>
       <c r="J5">
-        <v>0.07872213839126019</v>
+        <v>0.168324684643455</v>
       </c>
       <c r="K5">
-        <v>1.639356726843374</v>
+        <v>0.7868357652513964</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4107280686579315</v>
+        <v>0.3255591980950072</v>
       </c>
       <c r="N5">
-        <v>0.9646218976672154</v>
+        <v>1.865323715095226</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.155161793201259</v>
+        <v>0.0516405163377982</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05840975906311741</v>
+        <v>0.1163283291641051</v>
       </c>
       <c r="E6">
-        <v>0.06098408937309152</v>
+        <v>0.1287585622187102</v>
       </c>
       <c r="F6">
-        <v>1.056814337957704</v>
+        <v>1.910386478079857</v>
       </c>
       <c r="G6">
-        <v>0.7988587671022032</v>
+        <v>1.266076246646207</v>
       </c>
       <c r="H6">
-        <v>0.5659314634373658</v>
+        <v>1.208136520926203</v>
       </c>
       <c r="I6">
-        <v>0.2933505959837586</v>
+        <v>0.6102150998256288</v>
       </c>
       <c r="J6">
-        <v>0.07858731733458768</v>
+        <v>0.1683395670597641</v>
       </c>
       <c r="K6">
-        <v>1.627424728307716</v>
+        <v>0.7835921514787003</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4079407415324852</v>
+        <v>0.3248726324719513</v>
       </c>
       <c r="N6">
-        <v>0.9667330836128434</v>
+        <v>1.866210891297825</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.162758254269562</v>
+        <v>0.05403934089844142</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06024157990083978</v>
+        <v>0.1166543351093381</v>
       </c>
       <c r="E7">
-        <v>0.06217943427927253</v>
+        <v>0.1288360442004652</v>
       </c>
       <c r="F7">
-        <v>1.075124101815362</v>
+        <v>1.910795631479203</v>
       </c>
       <c r="G7">
-        <v>0.8148546952301956</v>
+        <v>1.26710165013418</v>
       </c>
       <c r="H7">
-        <v>0.5709872157335951</v>
+        <v>1.206902262971951</v>
       </c>
       <c r="I7">
-        <v>0.2898817004743091</v>
+        <v>0.6082053186659433</v>
       </c>
       <c r="J7">
-        <v>0.07953418358988884</v>
+        <v>0.168242895226264</v>
       </c>
       <c r="K7">
-        <v>1.710332701789866</v>
+        <v>0.8061345304788574</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.427318579673063</v>
+        <v>0.3296529028812643</v>
       </c>
       <c r="N7">
-        <v>0.9521833021673674</v>
+        <v>1.860106692274441</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1962306406657746</v>
+        <v>0.0646139387360023</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06842548027670858</v>
+        <v>0.11817591291382</v>
       </c>
       <c r="E8">
-        <v>0.06762861299636214</v>
+        <v>0.1292910649967247</v>
       </c>
       <c r="F8">
-        <v>1.160550571968201</v>
+        <v>1.914881729974837</v>
       </c>
       <c r="G8">
-        <v>0.889458693194058</v>
+        <v>1.273380676556144</v>
       </c>
       <c r="H8">
-        <v>0.5956211569220358</v>
+        <v>1.202702139460385</v>
       </c>
       <c r="I8">
-        <v>0.2756462166112144</v>
+        <v>0.5999068777149468</v>
       </c>
       <c r="J8">
-        <v>0.08399836484905165</v>
+        <v>0.1679802706573135</v>
       </c>
       <c r="K8">
-        <v>2.07867011641855</v>
+        <v>0.9063034324389889</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5136728106668471</v>
+        <v>0.3511115329633014</v>
       </c>
       <c r="N8">
-        <v>0.8906061960142768</v>
+        <v>1.83450098943326</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2617781786688056</v>
+        <v>0.08530160974221701</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08489415592778471</v>
+        <v>0.1214553235062894</v>
       </c>
       <c r="E9">
-        <v>0.07902178057409159</v>
+        <v>0.1305886040058581</v>
       </c>
       <c r="F9">
-        <v>1.347142528395693</v>
+        <v>1.931101884618741</v>
       </c>
       <c r="G9">
-        <v>1.052497673290233</v>
+        <v>1.29201988525061</v>
       </c>
       <c r="H9">
-        <v>0.6533323530748163</v>
+        <v>1.198946845800592</v>
       </c>
       <c r="I9">
-        <v>0.2518314536058739</v>
+        <v>0.5856831965153386</v>
       </c>
       <c r="J9">
-        <v>0.09390644036152196</v>
+        <v>0.1680542541174006</v>
       </c>
       <c r="K9">
-        <v>2.813406002839542</v>
+        <v>1.105217175812555</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6869214633833849</v>
+        <v>0.3944964668745996</v>
       </c>
       <c r="N9">
-        <v>0.7798173831077415</v>
+        <v>1.789072416290784</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3099725873145758</v>
+        <v>0.1004639098737954</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0973119796879871</v>
+        <v>0.1240429912801417</v>
       </c>
       <c r="E10">
-        <v>0.08790711819061414</v>
+        <v>0.1317881343001801</v>
       </c>
       <c r="F10">
-        <v>1.498377241377142</v>
+        <v>1.948037920843106</v>
       </c>
       <c r="G10">
-        <v>1.18487260370884</v>
+        <v>1.309595371101068</v>
       </c>
       <c r="H10">
-        <v>0.7025552112055493</v>
+        <v>1.198923117874187</v>
       </c>
       <c r="I10">
-        <v>0.2370836155634279</v>
+        <v>0.576482108764246</v>
       </c>
       <c r="J10">
-        <v>0.1020198787726088</v>
+        <v>0.168467705032505</v>
       </c>
       <c r="K10">
-        <v>3.364482991318425</v>
+        <v>1.252882035373204</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8175076336671125</v>
+        <v>0.4271672388650884</v>
       </c>
       <c r="N10">
-        <v>0.7050180791672052</v>
+        <v>1.758612019585579</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3319277381621077</v>
+        <v>0.1073522184633759</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1030454360473172</v>
+        <v>0.1252585192878897</v>
       </c>
       <c r="E11">
-        <v>0.09208132106310529</v>
+        <v>0.1323871438504121</v>
       </c>
       <c r="F11">
-        <v>1.570863920584486</v>
+        <v>1.956836137068308</v>
       </c>
       <c r="G11">
-        <v>1.248409435463799</v>
+        <v>1.318439290586326</v>
       </c>
       <c r="H11">
-        <v>0.7266955910442334</v>
+        <v>1.1995071633294</v>
       </c>
       <c r="I11">
-        <v>0.2310306807358842</v>
+        <v>0.5725674342309439</v>
       </c>
       <c r="J11">
-        <v>0.1059237030391316</v>
+        <v>0.1687337975986054</v>
       </c>
       <c r="K11">
-        <v>3.618534475402214</v>
+        <v>1.320392330018763</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8778559016132448</v>
+        <v>0.4422031990955304</v>
       </c>
       <c r="N11">
-        <v>0.6725490487247701</v>
+        <v>1.745387869234511</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3402479743115947</v>
+        <v>0.1099591838242873</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1052300586317472</v>
+        <v>0.1257242888607806</v>
       </c>
       <c r="E12">
-        <v>0.09368282453442589</v>
+        <v>0.1326216253419439</v>
       </c>
       <c r="F12">
-        <v>1.598899411271631</v>
+        <v>1.960325322447375</v>
       </c>
       <c r="G12">
-        <v>1.272999722715923</v>
+        <v>1.321910687886856</v>
       </c>
       <c r="H12">
-        <v>0.7361127817929116</v>
+        <v>1.199813914199552</v>
       </c>
       <c r="I12">
-        <v>0.2288383044759534</v>
+        <v>0.5711240139991496</v>
       </c>
       <c r="J12">
-        <v>0.10743549282153</v>
+        <v>0.1688457761891939</v>
       </c>
       <c r="K12">
-        <v>3.715303251374053</v>
+        <v>1.346005050584608</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9008643429020111</v>
+        <v>0.4479218747602829</v>
       </c>
       <c r="N12">
-        <v>0.660489582584507</v>
+        <v>1.74047121107481</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.338455752429212</v>
+        <v>0.1093977962023587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1047589387709564</v>
+        <v>0.1256237342268633</v>
       </c>
       <c r="E13">
-        <v>0.09333695550252585</v>
+        <v>0.1325707856613434</v>
       </c>
       <c r="F13">
-        <v>1.592834445100465</v>
+        <v>1.959566856454416</v>
       </c>
       <c r="G13">
-        <v>1.267679284559648</v>
+        <v>1.32115761115142</v>
       </c>
       <c r="H13">
-        <v>0.7340719464239669</v>
+        <v>1.199744042678645</v>
       </c>
       <c r="I13">
-        <v>0.229305945413401</v>
+        <v>0.5714331463081379</v>
       </c>
       <c r="J13">
-        <v>0.1071083637139267</v>
+        <v>0.168821160844665</v>
       </c>
       <c r="K13">
-        <v>3.694435859726013</v>
+        <v>1.340486762733178</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8959017912197709</v>
+        <v>0.4466891507771109</v>
       </c>
       <c r="N13">
-        <v>0.6630761151151816</v>
+        <v>1.741526050742915</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3326121120083769</v>
+        <v>0.1075667259130739</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1032248879164825</v>
+        <v>0.1252967289462958</v>
       </c>
       <c r="E14">
-        <v>0.09221264946713248</v>
+        <v>0.1324062815903666</v>
       </c>
       <c r="F14">
-        <v>1.573158327988168</v>
+        <v>1.957120037000905</v>
       </c>
       <c r="G14">
-        <v>1.250421544952388</v>
+        <v>1.318722429509108</v>
       </c>
       <c r="H14">
-        <v>0.7274646754297862</v>
+        <v>1.199530684362713</v>
       </c>
       <c r="I14">
-        <v>0.2308482812335271</v>
+        <v>0.5724479018039794</v>
       </c>
       <c r="J14">
-        <v>0.1060473902525345</v>
+        <v>0.1687427853930359</v>
       </c>
       <c r="K14">
-        <v>3.62648388479596</v>
+        <v>1.322498543470886</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8797455744001041</v>
+        <v>0.4426731799432488</v>
       </c>
       <c r="N14">
-        <v>0.6715521108225868</v>
+        <v>1.744981547652105</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3290335892793195</v>
+        <v>0.1064449434431509</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1022870354001242</v>
+        <v>0.1250971405324535</v>
       </c>
       <c r="E15">
-        <v>0.09152674772711578</v>
+        <v>0.1323065136989818</v>
       </c>
       <c r="F15">
-        <v>1.561184242193093</v>
+        <v>1.955641805101109</v>
       </c>
       <c r="G15">
-        <v>1.239921393261852</v>
+        <v>1.317246760521073</v>
       </c>
       <c r="H15">
-        <v>0.7234542011111387</v>
+        <v>1.199411143464829</v>
       </c>
       <c r="I15">
-        <v>0.2318061630680681</v>
+        <v>0.5730745460674598</v>
       </c>
       <c r="J15">
-        <v>0.1054019649873155</v>
+        <v>0.1686962386221253</v>
       </c>
       <c r="K15">
-        <v>3.584937458732895</v>
+        <v>1.311486483951569</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8698703514153152</v>
+        <v>0.4402165189954985</v>
       </c>
       <c r="N15">
-        <v>0.6767749870572874</v>
+        <v>1.747109998391982</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3085385467181965</v>
+        <v>0.1000135442948391</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09693909701668701</v>
+        <v>0.1239643222851754</v>
       </c>
       <c r="E16">
-        <v>0.08763713613428337</v>
+        <v>0.1317500591638741</v>
       </c>
       <c r="F16">
-        <v>1.493718965650999</v>
+        <v>1.947484965210705</v>
       </c>
       <c r="G16">
-        <v>1.180791530864298</v>
+        <v>1.309034508797907</v>
       </c>
       <c r="H16">
-        <v>0.7010147957375352</v>
+        <v>1.198896922906812</v>
       </c>
       <c r="I16">
-        <v>0.2374928420594635</v>
+        <v>0.5767433958130148</v>
       </c>
       <c r="J16">
-        <v>0.1017692801515366</v>
+        <v>0.1684518848013852</v>
       </c>
       <c r="K16">
-        <v>3.347954595726037</v>
+        <v>1.248476822408406</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8135844062743516</v>
+        <v>0.4261880920026471</v>
       </c>
       <c r="N16">
-        <v>0.7071723417417282</v>
+        <v>1.759488983360961</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.29597475094603</v>
+        <v>0.09606563131599444</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09368087173527329</v>
+        <v>0.1232791747608033</v>
       </c>
       <c r="E17">
-        <v>0.08528609103181495</v>
+        <v>0.1314223388125129</v>
       </c>
       <c r="F17">
-        <v>1.453314314245191</v>
+        <v>1.942761321029494</v>
       </c>
       <c r="G17">
-        <v>1.145403564462441</v>
+        <v>1.304214189176605</v>
       </c>
       <c r="H17">
-        <v>0.6877134332758033</v>
+        <v>1.198733851661729</v>
       </c>
       <c r="I17">
-        <v>0.2411531649075123</v>
+        <v>0.5790635265105344</v>
       </c>
       <c r="J17">
-        <v>0.09959726091990717</v>
+        <v>0.1683219601974244</v>
       </c>
       <c r="K17">
-        <v>3.203490341661848</v>
+        <v>1.209908418208215</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7793103276305686</v>
+        <v>0.4176265529093541</v>
       </c>
       <c r="N17">
-        <v>0.7262272082437349</v>
+        <v>1.767245139771091</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2887512159279737</v>
+        <v>0.09379405055588563</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09181469643463913</v>
+        <v>0.1228887116316315</v>
       </c>
       <c r="E18">
-        <v>0.08394616006973621</v>
+        <v>0.1312388642865798</v>
       </c>
       <c r="F18">
-        <v>1.430418253240987</v>
+        <v>1.940147360205131</v>
       </c>
       <c r="G18">
-        <v>1.125358281447404</v>
+        <v>1.301521535508186</v>
       </c>
       <c r="H18">
-        <v>0.6802258548996178</v>
+        <v>1.198696043458526</v>
       </c>
       <c r="I18">
-        <v>0.2433198780615022</v>
+        <v>0.5804235058458822</v>
       </c>
       <c r="J18">
-        <v>0.09836783386773362</v>
+        <v>0.1682545739881647</v>
       </c>
       <c r="K18">
-        <v>3.120709648037234</v>
+        <v>1.187756617716673</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7596843267851554</v>
+        <v>0.412718553750608</v>
       </c>
       <c r="N18">
-        <v>0.7373329007334286</v>
+        <v>1.771765797707332</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2863058841009121</v>
+        <v>0.09302479257586072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09118415441373173</v>
+        <v>0.1227571298589822</v>
       </c>
       <c r="E19">
-        <v>0.08349454707875736</v>
+        <v>0.1311776060401648</v>
       </c>
       <c r="F19">
-        <v>1.422723436253847</v>
+        <v>1.939279994878959</v>
       </c>
       <c r="G19">
-        <v>1.118622814110083</v>
+        <v>1.300623555839451</v>
       </c>
       <c r="H19">
-        <v>0.677717981912167</v>
+        <v>1.19869285647826</v>
       </c>
       <c r="I19">
-        <v>0.2440638754808084</v>
+        <v>0.5808883507812581</v>
       </c>
       <c r="J19">
-        <v>0.09795489863552831</v>
+        <v>0.168233019431959</v>
       </c>
       <c r="K19">
-        <v>3.092732641867769</v>
+        <v>1.18026185969461</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7530537517689595</v>
+        <v>0.411059605010216</v>
       </c>
       <c r="N19">
-        <v>0.7411177988631099</v>
+        <v>1.773306634867229</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2973118831471453</v>
+        <v>0.09648598221343718</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09402689160480548</v>
+        <v>0.123351736005084</v>
       </c>
       <c r="E20">
-        <v>0.08553507525931892</v>
+        <v>0.131456705638989</v>
       </c>
       <c r="F20">
-        <v>1.457579505513053</v>
+        <v>1.943253504279653</v>
       </c>
       <c r="G20">
-        <v>1.149138330758518</v>
+        <v>1.304719052004089</v>
       </c>
       <c r="H20">
-        <v>0.6891123456352091</v>
+        <v>1.198745416177672</v>
       </c>
       <c r="I20">
-        <v>0.2407571254579786</v>
+        <v>0.5788139051780306</v>
       </c>
       <c r="J20">
-        <v>0.0998264005303966</v>
+        <v>0.1683350309435454</v>
       </c>
       <c r="K20">
-        <v>3.218836022236701</v>
+        <v>1.214010810084403</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7829496614790301</v>
+        <v>0.4185362498070404</v>
       </c>
       <c r="N20">
-        <v>0.7241836086288673</v>
+        <v>1.766413322689648</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3343283449415537</v>
+        <v>0.108104597443031</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1036750986091377</v>
+        <v>0.1253926300718575</v>
       </c>
       <c r="E21">
-        <v>0.09254230506909167</v>
+        <v>0.132454392977035</v>
       </c>
       <c r="F21">
-        <v>1.578921296897406</v>
+        <v>1.95783445140286</v>
       </c>
       <c r="G21">
-        <v>1.255475723573028</v>
+        <v>1.319434376778389</v>
       </c>
       <c r="H21">
-        <v>0.7293977025834124</v>
+        <v>1.199591029709779</v>
       </c>
       <c r="I21">
-        <v>0.2303925077472719</v>
+        <v>0.5721487853916756</v>
       </c>
       <c r="J21">
-        <v>0.1063580906867969</v>
+        <v>0.1687655018097658</v>
       </c>
       <c r="K21">
-        <v>3.646427007597367</v>
+        <v>1.327780818928829</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8844866473486306</v>
+        <v>0.4438520935153321</v>
       </c>
       <c r="N21">
-        <v>0.6690560049190619</v>
+        <v>1.743964112841903</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3585583793660305</v>
+        <v>0.1156892803033713</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1100600763398774</v>
+        <v>0.1267583673530766</v>
       </c>
       <c r="E22">
-        <v>0.09724426319372625</v>
+        <v>0.1331510176120396</v>
       </c>
       <c r="F22">
-        <v>1.661672549870644</v>
+        <v>1.968282014848469</v>
       </c>
       <c r="G22">
-        <v>1.328092333741154</v>
+        <v>1.32976527866839</v>
       </c>
       <c r="H22">
-        <v>0.7573467247531198</v>
+        <v>1.200642568900804</v>
       </c>
       <c r="I22">
-        <v>0.2242027981845602</v>
+        <v>0.5680199712098428</v>
       </c>
       <c r="J22">
-        <v>0.1108236856352534</v>
+        <v>0.1691122084716241</v>
       </c>
       <c r="K22">
-        <v>3.929219005476</v>
+        <v>1.402415912924766</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9517661202058108</v>
+        <v>0.4605424492215207</v>
       </c>
       <c r="N22">
-        <v>0.6344078913707438</v>
+        <v>1.729822958138532</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3456222801281683</v>
+        <v>0.1116420524452764</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1066445651070183</v>
+        <v>0.1260265438150441</v>
       </c>
       <c r="E23">
-        <v>0.09472290756894353</v>
+        <v>0.1327751436697966</v>
       </c>
       <c r="F23">
-        <v>1.617171423485232</v>
+        <v>1.962621887669357</v>
       </c>
       <c r="G23">
-        <v>1.289031293435272</v>
+        <v>1.324186072861352</v>
       </c>
       <c r="H23">
-        <v>0.7422729380999442</v>
+        <v>1.200035678425479</v>
       </c>
       <c r="I23">
-        <v>0.2274510136498691</v>
+        <v>0.5702027989793166</v>
       </c>
       <c r="J23">
-        <v>0.1084212956334483</v>
+        <v>0.168921184221297</v>
       </c>
       <c r="K23">
-        <v>3.777953410671671</v>
+        <v>1.362556285133962</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.915766555251146</v>
+        <v>0.4516212643249347</v>
       </c>
       <c r="N23">
-        <v>0.6527696960324132</v>
+        <v>1.737321766354847</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2967073671886311</v>
+        <v>0.09629594739378433</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09387043424969477</v>
+        <v>0.1233189203573062</v>
       </c>
       <c r="E24">
-        <v>0.08542247313180695</v>
+        <v>0.1314411530195976</v>
       </c>
       <c r="F24">
-        <v>1.455650179134878</v>
+        <v>1.943030671369982</v>
       </c>
       <c r="G24">
-        <v>1.147448913273735</v>
+        <v>1.304490558667794</v>
       </c>
       <c r="H24">
-        <v>0.6884794021985101</v>
+        <v>1.198740013593579</v>
       </c>
       <c r="I24">
-        <v>0.2409359811078353</v>
+        <v>0.5789266776661002</v>
       </c>
       <c r="J24">
-        <v>0.09972274662458602</v>
+        <v>0.1683290988914479</v>
       </c>
       <c r="K24">
-        <v>3.211897393490688</v>
+        <v>1.212156051130876</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7813040752499631</v>
+        <v>0.4181249317749831</v>
       </c>
       <c r="N24">
-        <v>0.7251070512057058</v>
+        <v>1.766789195495764</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2440464714828892</v>
+        <v>0.0797110276342039</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08038783866478383</v>
+        <v>0.1205367094084409</v>
       </c>
       <c r="E25">
-        <v>0.07585565078047907</v>
+        <v>0.1301942863941257</v>
       </c>
       <c r="F25">
-        <v>1.294374734396058</v>
+        <v>1.92583364308436</v>
       </c>
       <c r="G25">
-        <v>1.006364427633869</v>
+        <v>1.28629769084759</v>
       </c>
       <c r="H25">
-        <v>0.6366059950180727</v>
+        <v>1.199482665399159</v>
       </c>
       <c r="I25">
-        <v>0.2578102516890031</v>
+        <v>0.5893117051482584</v>
       </c>
       <c r="J25">
-        <v>0.09108964270564712</v>
+        <v>0.1679711818124687</v>
       </c>
       <c r="K25">
-        <v>2.612947385685686</v>
+        <v>1.051138983696006</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6395444090526539</v>
+        <v>0.3826199730602227</v>
       </c>
       <c r="N25">
-        <v>0.8086704387177619</v>
+        <v>1.800849946637276</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06747606590576538</v>
+        <v>0.2052905568515087</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1186082610989203</v>
+        <v>0.07066919193114529</v>
       </c>
       <c r="E2">
-        <v>0.1294418084900464</v>
+        <v>0.06915004970564098</v>
       </c>
       <c r="F2">
-        <v>1.916543709514201</v>
+        <v>1.184900811322152</v>
       </c>
       <c r="G2">
-        <v>1.275509177230489</v>
+        <v>0.9107235915281393</v>
       </c>
       <c r="H2">
-        <v>1.201867251022534</v>
+        <v>0.6028947105659057</v>
       </c>
       <c r="I2">
-        <v>0.5977971328830698</v>
+        <v>0.2720579766899824</v>
       </c>
       <c r="J2">
-        <v>0.1679489714918105</v>
+        <v>0.08528151651906768</v>
       </c>
       <c r="K2">
-        <v>0.9336118786398231</v>
+        <v>2.179185574828182</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3570140207309791</v>
+        <v>0.5373034419520621</v>
       </c>
       <c r="N2">
-        <v>1.827886918869599</v>
+        <v>0.874578140016296</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05917170631208535</v>
+        <v>0.1790053608738589</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1173768301360809</v>
+        <v>0.06419217724575788</v>
       </c>
       <c r="E3">
-        <v>0.1290353841054745</v>
+        <v>0.0647890383864862</v>
       </c>
       <c r="F3">
-        <v>1.912345820883672</v>
+        <v>1.115661438700911</v>
       </c>
       <c r="G3">
-        <v>1.269815302266551</v>
+        <v>0.850259140888582</v>
       </c>
       <c r="H3">
-        <v>1.204628491038235</v>
+        <v>0.5824851348472322</v>
       </c>
       <c r="I3">
-        <v>0.6040713770614285</v>
+        <v>0.2827693597591576</v>
       </c>
       <c r="J3">
-        <v>0.1680844295775081</v>
+        <v>0.08164424884307664</v>
       </c>
       <c r="K3">
-        <v>0.8545992344685658</v>
+        <v>1.888515570672837</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3399944152535355</v>
+        <v>0.469042060135358</v>
       </c>
       <c r="N3">
-        <v>1.847432209408699</v>
+        <v>0.9218055824763587</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.054067404551148</v>
+        <v>0.162847111393134</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1166581953051775</v>
+        <v>0.06026306679824245</v>
       </c>
       <c r="E4">
-        <v>0.1288370127842953</v>
+        <v>0.06219351311362331</v>
       </c>
       <c r="F4">
-        <v>1.910801666421847</v>
+        <v>1.075340774206751</v>
       </c>
       <c r="G4">
-        <v>1.26711460737495</v>
+        <v>0.8150439638761213</v>
       </c>
       <c r="H4">
-        <v>1.206888502574671</v>
+        <v>0.5710475995436752</v>
       </c>
       <c r="I4">
-        <v>0.6081821138498107</v>
+        <v>0.2898416857096215</v>
       </c>
       <c r="J4">
-        <v>0.1682418537829946</v>
+        <v>0.07954541390953906</v>
       </c>
       <c r="K4">
-        <v>0.8063986839827351</v>
+        <v>1.711304029917386</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3297090373926324</v>
+        <v>0.4275457471933848</v>
       </c>
       <c r="N4">
-        <v>1.860035993907022</v>
+        <v>0.952014467206924</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05198617059970445</v>
+        <v>0.1562565438498495</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1163748117610481</v>
+        <v>0.05867311624778182</v>
       </c>
       <c r="E5">
-        <v>0.1287690655726479</v>
+        <v>0.06115533195628409</v>
       </c>
       <c r="F5">
-        <v>1.91043215119754</v>
+        <v>1.05942662399174</v>
       </c>
       <c r="G5">
-        <v>1.266213774609568</v>
+        <v>0.8011411900148175</v>
       </c>
       <c r="H5">
-        <v>1.207951445479182</v>
+        <v>0.5666469004099213</v>
       </c>
       <c r="I5">
-        <v>0.6099222312732646</v>
+        <v>0.2928447342271845</v>
       </c>
       <c r="J5">
-        <v>0.168324684643455</v>
+        <v>0.07872213839130637</v>
       </c>
       <c r="K5">
-        <v>0.7868357652513964</v>
+        <v>1.639356726843289</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3255591980950072</v>
+        <v>0.4107280686579315</v>
       </c>
       <c r="N5">
-        <v>1.865323715095226</v>
+        <v>0.9646218976672118</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0516405163377982</v>
+        <v>0.155161793201259</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1163283291641051</v>
+        <v>0.05840975906311741</v>
       </c>
       <c r="E6">
-        <v>0.1287585622187102</v>
+        <v>0.06098408937308974</v>
       </c>
       <c r="F6">
-        <v>1.910386478079857</v>
+        <v>1.056814337957704</v>
       </c>
       <c r="G6">
-        <v>1.266076246646207</v>
+        <v>0.7988587671022032</v>
       </c>
       <c r="H6">
-        <v>1.208136520926203</v>
+        <v>0.5659314634374937</v>
       </c>
       <c r="I6">
-        <v>0.6102150998256288</v>
+        <v>0.2933505959837586</v>
       </c>
       <c r="J6">
-        <v>0.1683395670597641</v>
+        <v>0.0785873173344811</v>
       </c>
       <c r="K6">
-        <v>0.7835921514787003</v>
+        <v>1.627424728307716</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3248726324719513</v>
+        <v>0.407940741532471</v>
       </c>
       <c r="N6">
-        <v>1.866210891297825</v>
+        <v>0.966733083612846</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05403934089844142</v>
+        <v>0.1627582542697041</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1166543351093381</v>
+        <v>0.06024157990077583</v>
       </c>
       <c r="E7">
-        <v>0.1288360442004652</v>
+        <v>0.06217943427926897</v>
       </c>
       <c r="F7">
-        <v>1.910795631479203</v>
+        <v>1.075124101815362</v>
       </c>
       <c r="G7">
-        <v>1.26710165013418</v>
+        <v>0.8148546952301956</v>
       </c>
       <c r="H7">
-        <v>1.206902262971951</v>
+        <v>0.5709872157334672</v>
       </c>
       <c r="I7">
-        <v>0.6082053186659433</v>
+        <v>0.2898817004743144</v>
       </c>
       <c r="J7">
-        <v>0.168242895226264</v>
+        <v>0.07953418358988529</v>
       </c>
       <c r="K7">
-        <v>0.8061345304788574</v>
+        <v>1.710332701789866</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3296529028812643</v>
+        <v>0.4273185796730488</v>
       </c>
       <c r="N7">
-        <v>1.860106692274441</v>
+        <v>0.9521833021674375</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0646139387360023</v>
+        <v>0.1962306406656467</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.11817591291382</v>
+        <v>0.06842548027682938</v>
       </c>
       <c r="E8">
-        <v>0.1292910649967247</v>
+        <v>0.06762861299636214</v>
       </c>
       <c r="F8">
-        <v>1.914881729974837</v>
+        <v>1.160550571968187</v>
       </c>
       <c r="G8">
-        <v>1.273380676556144</v>
+        <v>0.889458693193987</v>
       </c>
       <c r="H8">
-        <v>1.202702139460385</v>
+        <v>0.5956211569221495</v>
       </c>
       <c r="I8">
-        <v>0.5999068777149468</v>
+        <v>0.2756462166112001</v>
       </c>
       <c r="J8">
-        <v>0.1679802706573135</v>
+        <v>0.083998364849041</v>
       </c>
       <c r="K8">
-        <v>0.9063034324389889</v>
+        <v>2.078670116418493</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3511115329633014</v>
+        <v>0.5136728106668471</v>
       </c>
       <c r="N8">
-        <v>1.83450098943326</v>
+        <v>0.8906061960143319</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08530160974221701</v>
+        <v>0.2617781786688056</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1214553235062894</v>
+        <v>0.08489415592779181</v>
       </c>
       <c r="E9">
-        <v>0.1305886040058581</v>
+        <v>0.07902178057411291</v>
       </c>
       <c r="F9">
-        <v>1.931101884618741</v>
+        <v>1.347142528395679</v>
       </c>
       <c r="G9">
-        <v>1.29201988525061</v>
+        <v>1.052497673290176</v>
       </c>
       <c r="H9">
-        <v>1.198946845800592</v>
+        <v>0.6533323530748163</v>
       </c>
       <c r="I9">
-        <v>0.5856831965153386</v>
+        <v>0.2518314536058686</v>
       </c>
       <c r="J9">
-        <v>0.1680542541174006</v>
+        <v>0.09390644036155749</v>
       </c>
       <c r="K9">
-        <v>1.105217175812555</v>
+        <v>2.813406002839514</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3944964668745996</v>
+        <v>0.6869214633833991</v>
       </c>
       <c r="N9">
-        <v>1.789072416290784</v>
+        <v>0.7798173831077317</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1004639098737954</v>
+        <v>0.3099725873144621</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1240429912801417</v>
+        <v>0.09731197968798</v>
       </c>
       <c r="E10">
-        <v>0.1317881343001801</v>
+        <v>0.08790711819060704</v>
       </c>
       <c r="F10">
-        <v>1.948037920843106</v>
+        <v>1.498377241377142</v>
       </c>
       <c r="G10">
-        <v>1.309595371101068</v>
+        <v>1.184872603708811</v>
       </c>
       <c r="H10">
-        <v>1.198923117874187</v>
+        <v>0.7025552112055493</v>
       </c>
       <c r="I10">
-        <v>0.576482108764246</v>
+        <v>0.2370836155634279</v>
       </c>
       <c r="J10">
-        <v>0.168467705032505</v>
+        <v>0.1020198787726159</v>
       </c>
       <c r="K10">
-        <v>1.252882035373204</v>
+        <v>3.364482991318425</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4271672388650884</v>
+        <v>0.8175076336671125</v>
       </c>
       <c r="N10">
-        <v>1.758612019585579</v>
+        <v>0.7050180791672096</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1073522184633759</v>
+        <v>0.3319277381620935</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1252585192878897</v>
+        <v>0.1030454360472319</v>
       </c>
       <c r="E11">
-        <v>0.1323871438504121</v>
+        <v>0.0920813210631124</v>
       </c>
       <c r="F11">
-        <v>1.956836137068308</v>
+        <v>1.5708639205845</v>
       </c>
       <c r="G11">
-        <v>1.318439290586326</v>
+        <v>1.248409435463799</v>
       </c>
       <c r="H11">
-        <v>1.1995071633294</v>
+        <v>0.7266955910441197</v>
       </c>
       <c r="I11">
-        <v>0.5725674342309439</v>
+        <v>0.2310306807358842</v>
       </c>
       <c r="J11">
-        <v>0.1687337975986054</v>
+        <v>0.1059237030391458</v>
       </c>
       <c r="K11">
-        <v>1.320392330018763</v>
+        <v>3.6185344754021</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4422031990955304</v>
+        <v>0.8778559016132448</v>
       </c>
       <c r="N11">
-        <v>1.745387869234511</v>
+        <v>0.6725490487247203</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1099591838242873</v>
+        <v>0.3402479743115663</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1257242888607806</v>
+        <v>0.1052300586317614</v>
       </c>
       <c r="E12">
-        <v>0.1326216253419439</v>
+        <v>0.09368282453440813</v>
       </c>
       <c r="F12">
-        <v>1.960325322447375</v>
+        <v>1.598899411271617</v>
       </c>
       <c r="G12">
-        <v>1.321910687886856</v>
+        <v>1.272999722715952</v>
       </c>
       <c r="H12">
-        <v>1.199813914199552</v>
+        <v>0.7361127817930253</v>
       </c>
       <c r="I12">
-        <v>0.5711240139991496</v>
+        <v>0.228838304475957</v>
       </c>
       <c r="J12">
-        <v>0.1688457761891939</v>
+        <v>0.1074354928214518</v>
       </c>
       <c r="K12">
-        <v>1.346005050584608</v>
+        <v>3.715303251374053</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4479218747602829</v>
+        <v>0.9008643429020111</v>
       </c>
       <c r="N12">
-        <v>1.74047121107481</v>
+        <v>0.6604895825844945</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1093977962023587</v>
+        <v>0.3384557524290983</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1256237342268633</v>
+        <v>0.1047589387709564</v>
       </c>
       <c r="E13">
-        <v>0.1325707856613434</v>
+        <v>0.09333695550251164</v>
       </c>
       <c r="F13">
-        <v>1.959566856454416</v>
+        <v>1.592834445100465</v>
       </c>
       <c r="G13">
-        <v>1.32115761115142</v>
+        <v>1.267679284559591</v>
       </c>
       <c r="H13">
-        <v>1.199744042678645</v>
+        <v>0.7340719464239669</v>
       </c>
       <c r="I13">
-        <v>0.5714331463081379</v>
+        <v>0.2293059454134188</v>
       </c>
       <c r="J13">
-        <v>0.168821160844665</v>
+        <v>0.107108363713813</v>
       </c>
       <c r="K13">
-        <v>1.340486762733178</v>
+        <v>3.694435859725843</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4466891507771109</v>
+        <v>0.895901791219778</v>
       </c>
       <c r="N13">
-        <v>1.741526050742915</v>
+        <v>0.6630761151151248</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1075667259130739</v>
+        <v>0.3326121120083769</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1252967289462958</v>
+        <v>0.1032248879164612</v>
       </c>
       <c r="E14">
-        <v>0.1324062815903666</v>
+        <v>0.09221264946712537</v>
       </c>
       <c r="F14">
-        <v>1.957120037000905</v>
+        <v>1.573158327988196</v>
       </c>
       <c r="G14">
-        <v>1.318722429509108</v>
+        <v>1.250421544952331</v>
       </c>
       <c r="H14">
-        <v>1.199530684362713</v>
+        <v>0.7274646754297862</v>
       </c>
       <c r="I14">
-        <v>0.5724479018039794</v>
+        <v>0.2308482812335377</v>
       </c>
       <c r="J14">
-        <v>0.1687427853930359</v>
+        <v>0.1060473902525203</v>
       </c>
       <c r="K14">
-        <v>1.322498543470886</v>
+        <v>3.62648388479596</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4426731799432488</v>
+        <v>0.8797455744000828</v>
       </c>
       <c r="N14">
-        <v>1.744981547652105</v>
+        <v>0.6715521108225815</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1064449434431509</v>
+        <v>0.3290335892791916</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1250971405324535</v>
+        <v>0.1022870354004439</v>
       </c>
       <c r="E15">
-        <v>0.1323065136989818</v>
+        <v>0.09152674772712643</v>
       </c>
       <c r="F15">
-        <v>1.955641805101109</v>
+        <v>1.561184242193093</v>
       </c>
       <c r="G15">
-        <v>1.317246760521073</v>
+        <v>1.239921393261881</v>
       </c>
       <c r="H15">
-        <v>1.199411143464829</v>
+        <v>0.7234542011111387</v>
       </c>
       <c r="I15">
-        <v>0.5730745460674598</v>
+        <v>0.2318061630680646</v>
       </c>
       <c r="J15">
-        <v>0.1686962386221253</v>
+        <v>0.1054019649872515</v>
       </c>
       <c r="K15">
-        <v>1.311486483951569</v>
+        <v>3.584937458732838</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4402165189954985</v>
+        <v>0.8698703514153365</v>
       </c>
       <c r="N15">
-        <v>1.747109998391982</v>
+        <v>0.6767749870573478</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1000135442948391</v>
+        <v>0.3085385467181538</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1239643222851754</v>
+        <v>0.09693909701672254</v>
       </c>
       <c r="E16">
-        <v>0.1317500591638741</v>
+        <v>0.08763713613427981</v>
       </c>
       <c r="F16">
-        <v>1.947484965210705</v>
+        <v>1.493718965651013</v>
       </c>
       <c r="G16">
-        <v>1.309034508797907</v>
+        <v>1.180791530864383</v>
       </c>
       <c r="H16">
-        <v>1.198896922906812</v>
+        <v>0.70101479573745</v>
       </c>
       <c r="I16">
-        <v>0.5767433958130148</v>
+        <v>0.2374928420594458</v>
       </c>
       <c r="J16">
-        <v>0.1684518848013852</v>
+        <v>0.1017692801515366</v>
       </c>
       <c r="K16">
-        <v>1.248476822408406</v>
+        <v>3.34795459572598</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4261880920026471</v>
+        <v>0.8135844062743303</v>
       </c>
       <c r="N16">
-        <v>1.759488983360961</v>
+        <v>0.7071723417417148</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09606563131599444</v>
+        <v>0.2959747509461579</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1232791747608033</v>
+        <v>0.09368087173520223</v>
       </c>
       <c r="E17">
-        <v>0.1314223388125129</v>
+        <v>0.08528609103181495</v>
       </c>
       <c r="F17">
-        <v>1.942761321029494</v>
+        <v>1.453314314245191</v>
       </c>
       <c r="G17">
-        <v>1.304214189176605</v>
+        <v>1.145403564462498</v>
       </c>
       <c r="H17">
-        <v>1.198733851661729</v>
+        <v>0.6877134332757748</v>
       </c>
       <c r="I17">
-        <v>0.5790635265105344</v>
+        <v>0.2411531649075016</v>
       </c>
       <c r="J17">
-        <v>0.1683219601974244</v>
+        <v>0.09959726091990717</v>
       </c>
       <c r="K17">
-        <v>1.209908418208215</v>
+        <v>3.203490341661904</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4176265529093541</v>
+        <v>0.7793103276305686</v>
       </c>
       <c r="N17">
-        <v>1.767245139771091</v>
+        <v>0.7262272082437438</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.09379405055588563</v>
+        <v>0.2887512159279595</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1228887116316315</v>
+        <v>0.09181469643475282</v>
       </c>
       <c r="E18">
-        <v>0.1312388642865798</v>
+        <v>0.08394616006973621</v>
       </c>
       <c r="F18">
-        <v>1.940147360205131</v>
+        <v>1.430418253240987</v>
       </c>
       <c r="G18">
-        <v>1.301521535508186</v>
+        <v>1.125358281447447</v>
       </c>
       <c r="H18">
-        <v>1.198696043458526</v>
+        <v>0.6802258548996178</v>
       </c>
       <c r="I18">
-        <v>0.5804235058458822</v>
+        <v>0.24331987806152</v>
       </c>
       <c r="J18">
-        <v>0.1682545739881647</v>
+        <v>0.09836783386772652</v>
       </c>
       <c r="K18">
-        <v>1.187756617716673</v>
+        <v>3.120709648037348</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.412718553750608</v>
+        <v>0.7596843267851625</v>
       </c>
       <c r="N18">
-        <v>1.771765797707332</v>
+        <v>0.7373329007333806</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09302479257586072</v>
+        <v>0.2863058841010258</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1227571298589822</v>
+        <v>0.091184154413817</v>
       </c>
       <c r="E19">
-        <v>0.1311776060401648</v>
+        <v>0.08349454707875736</v>
       </c>
       <c r="F19">
-        <v>1.939279994878959</v>
+        <v>1.422723436253833</v>
       </c>
       <c r="G19">
-        <v>1.300623555839451</v>
+        <v>1.118622814110026</v>
       </c>
       <c r="H19">
-        <v>1.19869285647826</v>
+        <v>0.6777179819122807</v>
       </c>
       <c r="I19">
-        <v>0.5808883507812581</v>
+        <v>0.2440638754808084</v>
       </c>
       <c r="J19">
-        <v>0.168233019431959</v>
+        <v>0.09795489863546436</v>
       </c>
       <c r="K19">
-        <v>1.18026185969461</v>
+        <v>3.092732641867826</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.411059605010216</v>
+        <v>0.7530537517689808</v>
       </c>
       <c r="N19">
-        <v>1.773306634867229</v>
+        <v>0.7411177988630469</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09648598221343718</v>
+        <v>0.2973118831471595</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.123351736005084</v>
+        <v>0.09402689160476285</v>
       </c>
       <c r="E20">
-        <v>0.131456705638989</v>
+        <v>0.0855350752592976</v>
       </c>
       <c r="F20">
-        <v>1.943253504279653</v>
+        <v>1.457579505513038</v>
       </c>
       <c r="G20">
-        <v>1.304719052004089</v>
+        <v>1.149138330758518</v>
       </c>
       <c r="H20">
-        <v>1.198745416177672</v>
+        <v>0.6891123456350954</v>
       </c>
       <c r="I20">
-        <v>0.5788139051780306</v>
+        <v>0.240757125457975</v>
       </c>
       <c r="J20">
-        <v>0.1683350309435454</v>
+        <v>0.09982640053044634</v>
       </c>
       <c r="K20">
-        <v>1.214010810084403</v>
+        <v>3.21883602223653</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4185362498070404</v>
+        <v>0.782949661479023</v>
       </c>
       <c r="N20">
-        <v>1.766413322689648</v>
+        <v>0.7241836086288709</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.108104597443031</v>
+        <v>0.3343283449416958</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1253926300718575</v>
+        <v>0.1036750986091164</v>
       </c>
       <c r="E21">
-        <v>0.132454392977035</v>
+        <v>0.0925423050691343</v>
       </c>
       <c r="F21">
-        <v>1.95783445140286</v>
+        <v>1.578921296897406</v>
       </c>
       <c r="G21">
-        <v>1.319434376778389</v>
+        <v>1.255475723572943</v>
       </c>
       <c r="H21">
-        <v>1.199591029709779</v>
+        <v>0.729397702583384</v>
       </c>
       <c r="I21">
-        <v>0.5721487853916756</v>
+        <v>0.2303925077472755</v>
       </c>
       <c r="J21">
-        <v>0.1687655018097658</v>
+        <v>0.1063580906868609</v>
       </c>
       <c r="K21">
-        <v>1.327780818928829</v>
+        <v>3.646427007597197</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4438520935153321</v>
+        <v>0.8844866473486093</v>
       </c>
       <c r="N21">
-        <v>1.743964112841903</v>
+        <v>0.6690560049190211</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1156892803033713</v>
+        <v>0.3585583793660305</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1267583673530766</v>
+        <v>0.1100600763397779</v>
       </c>
       <c r="E22">
-        <v>0.1331510176120396</v>
+        <v>0.09724426319371204</v>
       </c>
       <c r="F22">
-        <v>1.968282014848469</v>
+        <v>1.661672549870644</v>
       </c>
       <c r="G22">
-        <v>1.32976527866839</v>
+        <v>1.328092333741125</v>
       </c>
       <c r="H22">
-        <v>1.200642568900804</v>
+        <v>0.7573467247532335</v>
       </c>
       <c r="I22">
-        <v>0.5680199712098428</v>
+        <v>0.2242027981845425</v>
       </c>
       <c r="J22">
-        <v>0.1691122084716241</v>
+        <v>0.1108236856351965</v>
       </c>
       <c r="K22">
-        <v>1.402415912924766</v>
+        <v>3.929219005476</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4605424492215207</v>
+        <v>0.9517661202058179</v>
       </c>
       <c r="N22">
-        <v>1.729822958138532</v>
+        <v>0.6344078913707847</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1116420524452764</v>
+        <v>0.3456222801280546</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1260265438150441</v>
+        <v>0.1066445651068051</v>
       </c>
       <c r="E23">
-        <v>0.1327751436697966</v>
+        <v>0.09472290756892576</v>
       </c>
       <c r="F23">
-        <v>1.962621887669357</v>
+        <v>1.617171423485246</v>
       </c>
       <c r="G23">
-        <v>1.324186072861352</v>
+        <v>1.289031293435272</v>
       </c>
       <c r="H23">
-        <v>1.200035678425479</v>
+        <v>0.7422729380999442</v>
       </c>
       <c r="I23">
-        <v>0.5702027989793166</v>
+        <v>0.2274510136498407</v>
       </c>
       <c r="J23">
-        <v>0.168921184221297</v>
+        <v>0.1084212956333843</v>
       </c>
       <c r="K23">
-        <v>1.362556285133962</v>
+        <v>3.777953410671728</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4516212643249347</v>
+        <v>0.9157665552511318</v>
       </c>
       <c r="N23">
-        <v>1.737321766354847</v>
+        <v>0.6527696960323421</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.09629594739378433</v>
+        <v>0.2967073671886027</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1233189203573062</v>
+        <v>0.09387043424969477</v>
       </c>
       <c r="E24">
-        <v>0.1314411530195976</v>
+        <v>0.0854224731318034</v>
       </c>
       <c r="F24">
-        <v>1.943030671369982</v>
+        <v>1.455650179134878</v>
       </c>
       <c r="G24">
-        <v>1.304490558667794</v>
+        <v>1.147448913273706</v>
       </c>
       <c r="H24">
-        <v>1.198740013593579</v>
+        <v>0.6884794021986238</v>
       </c>
       <c r="I24">
-        <v>0.5789266776661002</v>
+        <v>0.2409359811078318</v>
       </c>
       <c r="J24">
-        <v>0.1683290988914479</v>
+        <v>0.09972274662462866</v>
       </c>
       <c r="K24">
-        <v>1.212156051130876</v>
+        <v>3.211897393490574</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4181249317749831</v>
+        <v>0.7813040752499631</v>
       </c>
       <c r="N24">
-        <v>1.766789195495764</v>
+        <v>0.7251070512057005</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0797110276342039</v>
+        <v>0.2440464714827613</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1205367094084409</v>
+        <v>0.08038783866491173</v>
       </c>
       <c r="E25">
-        <v>0.1301942863941257</v>
+        <v>0.07585565078047907</v>
       </c>
       <c r="F25">
-        <v>1.92583364308436</v>
+        <v>1.294374734396072</v>
       </c>
       <c r="G25">
-        <v>1.28629769084759</v>
+        <v>1.006364427633898</v>
       </c>
       <c r="H25">
-        <v>1.199482665399159</v>
+        <v>0.636605995017959</v>
       </c>
       <c r="I25">
-        <v>0.5893117051482584</v>
+        <v>0.2578102516890066</v>
       </c>
       <c r="J25">
-        <v>0.1679711818124687</v>
+        <v>0.09108964270571107</v>
       </c>
       <c r="K25">
-        <v>1.051138983696006</v>
+        <v>2.612947385685572</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3826199730602227</v>
+        <v>0.639544409052661</v>
       </c>
       <c r="N25">
-        <v>1.800849946637276</v>
+        <v>0.8086704387177708</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2052905568515087</v>
+        <v>3.382579823018773</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07066919193114529</v>
+        <v>0.08644107692664171</v>
       </c>
       <c r="E2">
-        <v>0.06915004970564098</v>
+        <v>0.1855367296028589</v>
       </c>
       <c r="F2">
-        <v>1.184900811322152</v>
+        <v>4.843741645566041</v>
       </c>
       <c r="G2">
-        <v>0.9107235915281393</v>
+        <v>4.870329703439722</v>
       </c>
       <c r="H2">
-        <v>0.6028947105659057</v>
+        <v>0.03721719658865652</v>
       </c>
       <c r="I2">
-        <v>0.2720579766899824</v>
+        <v>0.00226091685459906</v>
       </c>
       <c r="J2">
-        <v>0.08528151651906768</v>
+        <v>2.489147209648422</v>
       </c>
       <c r="K2">
-        <v>2.179185574828182</v>
+        <v>11.52412880593573</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4256362540949681</v>
       </c>
       <c r="M2">
-        <v>0.5373034419520621</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.874578140016296</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1790053608738589</v>
+        <v>2.948045210902649</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06419217724575788</v>
+        <v>0.07894329022095725</v>
       </c>
       <c r="E3">
-        <v>0.0647890383864862</v>
+        <v>0.1644109682966821</v>
       </c>
       <c r="F3">
-        <v>1.115661438700911</v>
+        <v>4.243472435771224</v>
       </c>
       <c r="G3">
-        <v>0.850259140888582</v>
+        <v>4.238193391804231</v>
       </c>
       <c r="H3">
-        <v>0.5824851348472322</v>
+        <v>0.02507066663687363</v>
       </c>
       <c r="I3">
-        <v>0.2827693597591576</v>
+        <v>0.003740881385943418</v>
       </c>
       <c r="J3">
-        <v>0.08164424884307664</v>
+        <v>2.189547463404892</v>
       </c>
       <c r="K3">
-        <v>1.888515570672837</v>
+        <v>10.07224184298005</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3723690448694441</v>
       </c>
       <c r="M3">
-        <v>0.469042060135358</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9218055824763587</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.162847111393134</v>
+        <v>2.681048148417744</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06026306679824245</v>
+        <v>0.07446738459949476</v>
       </c>
       <c r="E4">
-        <v>0.06219351311362331</v>
+        <v>0.1517100496775434</v>
       </c>
       <c r="F4">
-        <v>1.075340774206751</v>
+        <v>3.880747117651367</v>
       </c>
       <c r="G4">
-        <v>0.8150439638761213</v>
+        <v>3.856335768909048</v>
       </c>
       <c r="H4">
-        <v>0.5710475995436752</v>
+        <v>0.0186869751665113</v>
       </c>
       <c r="I4">
-        <v>0.2898416857096215</v>
+        <v>0.004900121160077653</v>
       </c>
       <c r="J4">
-        <v>0.07954541390953906</v>
+        <v>2.008751657049174</v>
       </c>
       <c r="K4">
-        <v>1.711304029917386</v>
+        <v>9.189783335065925</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3402613853406535</v>
       </c>
       <c r="M4">
-        <v>0.4275457471933848</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.952014467206924</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1562565438498495</v>
+        <v>2.572190666577455</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05867311624778182</v>
+        <v>0.07266784660029479</v>
       </c>
       <c r="E5">
-        <v>0.06115533195628409</v>
+        <v>0.1465879097053993</v>
       </c>
       <c r="F5">
-        <v>1.05942662399174</v>
+        <v>3.73417828700633</v>
       </c>
       <c r="G5">
-        <v>0.8011411900148175</v>
+        <v>3.702060376390193</v>
       </c>
       <c r="H5">
-        <v>0.5666469004099213</v>
+        <v>0.01632540084989542</v>
       </c>
       <c r="I5">
-        <v>0.2928447342271845</v>
+        <v>0.005492125352045463</v>
       </c>
       <c r="J5">
-        <v>0.07872213839130637</v>
+        <v>1.935754294215798</v>
       </c>
       <c r="K5">
-        <v>1.639356726843289</v>
+        <v>8.853051793186836</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3272983614835141</v>
       </c>
       <c r="M5">
-        <v>0.4107280686579315</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9646218976672118</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.155161793201259</v>
+        <v>2.554139934485761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05840975906311741</v>
+        <v>0.07237030113429554</v>
       </c>
       <c r="E6">
-        <v>0.06098408937308974</v>
+        <v>0.1457402244321564</v>
       </c>
       <c r="F6">
-        <v>1.056814337957704</v>
+        <v>3.709909657586877</v>
       </c>
       <c r="G6">
-        <v>0.7988587671022032</v>
+        <v>3.676516991454093</v>
       </c>
       <c r="H6">
-        <v>0.5659314634374937</v>
+        <v>0.01594691657199387</v>
       </c>
       <c r="I6">
-        <v>0.2933505959837586</v>
+        <v>0.005678592604683175</v>
       </c>
       <c r="J6">
-        <v>0.0785873173344811</v>
+        <v>1.923670924583377</v>
       </c>
       <c r="K6">
-        <v>1.627424728307716</v>
+        <v>8.822774377572443</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3251523680549298</v>
       </c>
       <c r="M6">
-        <v>0.407940741532471</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.966733083612846</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1627582542697041</v>
+        <v>2.679674505376852</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06024157990077583</v>
+        <v>0.07444302604310593</v>
       </c>
       <c r="E7">
-        <v>0.06217943427926897</v>
+        <v>0.1516407717419668</v>
       </c>
       <c r="F7">
-        <v>1.075124101815362</v>
+        <v>3.878765680776098</v>
       </c>
       <c r="G7">
-        <v>0.8148546952301956</v>
+        <v>3.854250058106459</v>
       </c>
       <c r="H7">
-        <v>0.5709872157334672</v>
+        <v>0.01865419304861748</v>
       </c>
       <c r="I7">
-        <v>0.2898817004743144</v>
+        <v>0.00512629853047919</v>
       </c>
       <c r="J7">
-        <v>0.07953418358988529</v>
+        <v>2.007764587756782</v>
       </c>
       <c r="K7">
-        <v>1.710332701789866</v>
+        <v>9.255134397703159</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3400861079788768</v>
       </c>
       <c r="M7">
-        <v>0.4273185796730488</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9521833021674375</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1962306406656467</v>
+        <v>3.232954425217486</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06842548027682938</v>
+        <v>0.08382440846063233</v>
       </c>
       <c r="E8">
-        <v>0.06762861299636214</v>
+        <v>0.1781873124813487</v>
       </c>
       <c r="F8">
-        <v>1.160550571968187</v>
+        <v>4.635414111242568</v>
       </c>
       <c r="G8">
-        <v>0.889458693193987</v>
+        <v>4.650912060183828</v>
       </c>
       <c r="H8">
-        <v>0.5956211569221495</v>
+        <v>0.03278690322608835</v>
       </c>
       <c r="I8">
-        <v>0.2756462166112001</v>
+        <v>0.002983637295443486</v>
       </c>
       <c r="J8">
-        <v>0.083998364849041</v>
+        <v>2.385115868694072</v>
       </c>
       <c r="K8">
-        <v>2.078670116418493</v>
+        <v>11.11520447974803</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4071268520156934</v>
       </c>
       <c r="M8">
-        <v>0.5136728106668471</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8906061960143319</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2617781786688056</v>
+        <v>4.317762104430585</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08489415592779181</v>
+        <v>0.1036348287171585</v>
       </c>
       <c r="E9">
-        <v>0.07902178057411291</v>
+        <v>0.233126868759463</v>
       </c>
       <c r="F9">
-        <v>1.347142528395679</v>
+        <v>6.176993118630492</v>
       </c>
       <c r="G9">
-        <v>1.052497673290176</v>
+        <v>6.275392449412777</v>
       </c>
       <c r="H9">
-        <v>0.6533323530748163</v>
+        <v>0.07056676174276522</v>
       </c>
       <c r="I9">
-        <v>0.2518314536058686</v>
+        <v>0.0007709237986635031</v>
       </c>
       <c r="J9">
-        <v>0.09390644036155749</v>
+        <v>3.156094402189296</v>
       </c>
       <c r="K9">
-        <v>2.813406002839514</v>
+        <v>14.71684120082568</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5448403081499009</v>
       </c>
       <c r="M9">
-        <v>0.6869214633833991</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7798173831077317</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3099725873144621</v>
+        <v>5.117536575218594</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09731197968798</v>
+        <v>0.1198063960202376</v>
       </c>
       <c r="E10">
-        <v>0.08790711819060704</v>
+        <v>0.2683913807959932</v>
       </c>
       <c r="F10">
-        <v>1.498377241377142</v>
+        <v>7.272120155025476</v>
       </c>
       <c r="G10">
-        <v>1.184872603708811</v>
+        <v>7.442547316948037</v>
       </c>
       <c r="H10">
-        <v>0.7025552112055493</v>
+        <v>0.1051698554768272</v>
       </c>
       <c r="I10">
-        <v>0.2370836155634279</v>
+        <v>0.001201653847853201</v>
       </c>
       <c r="J10">
-        <v>0.1020198787726159</v>
+        <v>3.709682687645852</v>
       </c>
       <c r="K10">
-        <v>3.364482991318425</v>
+        <v>17.46403937377971</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6302013755323657</v>
       </c>
       <c r="M10">
-        <v>0.8175076336671125</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7050180791672096</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3319277381620935</v>
+        <v>5.483227921780895</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1030454360472319</v>
+        <v>0.130038087071803</v>
       </c>
       <c r="E11">
-        <v>0.0920813210631124</v>
+        <v>0.2227492848037578</v>
       </c>
       <c r="F11">
-        <v>1.5708639205845</v>
+        <v>6.997349043560007</v>
       </c>
       <c r="G11">
-        <v>1.248409435463799</v>
+        <v>7.258699983597182</v>
       </c>
       <c r="H11">
-        <v>0.7266955910441197</v>
+        <v>0.1255965978854405</v>
       </c>
       <c r="I11">
-        <v>0.2310306807358842</v>
+        <v>0.0023677294247193</v>
       </c>
       <c r="J11">
-        <v>0.1059237030391458</v>
+        <v>3.611155477198622</v>
       </c>
       <c r="K11">
-        <v>3.6185344754021</v>
+        <v>18.85368032969518</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4954653383840935</v>
       </c>
       <c r="M11">
-        <v>0.8778559016132448</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6725490487247203</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3402479743115663</v>
+        <v>5.621657906775965</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1052300586317614</v>
+        <v>0.1372015883282174</v>
       </c>
       <c r="E12">
-        <v>0.09368282453440813</v>
+        <v>0.1868420982965926</v>
       </c>
       <c r="F12">
-        <v>1.598899411271617</v>
+        <v>6.537297347214093</v>
       </c>
       <c r="G12">
-        <v>1.272999722715952</v>
+        <v>6.856683988998157</v>
       </c>
       <c r="H12">
-        <v>0.7361127817930253</v>
+        <v>0.1597284507905101</v>
       </c>
       <c r="I12">
-        <v>0.228838304475957</v>
+        <v>0.002685594657288348</v>
       </c>
       <c r="J12">
-        <v>0.1074354928214518</v>
+        <v>3.410452785082896</v>
       </c>
       <c r="K12">
-        <v>3.715303251374053</v>
+        <v>19.31862268951397</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3859388602192269</v>
       </c>
       <c r="M12">
-        <v>0.9008643429020111</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6604895825844945</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3384557524290983</v>
+        <v>5.591767537635917</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1047589387709564</v>
+        <v>0.1421674211876152</v>
       </c>
       <c r="E13">
-        <v>0.09333695550251164</v>
+        <v>0.15673074738657</v>
       </c>
       <c r="F13">
-        <v>1.592834445100465</v>
+        <v>5.915059492535448</v>
       </c>
       <c r="G13">
-        <v>1.267679284559591</v>
+        <v>6.269686224682289</v>
       </c>
       <c r="H13">
-        <v>0.7340719464239669</v>
+        <v>0.2059451229343097</v>
       </c>
       <c r="I13">
-        <v>0.2293059454134188</v>
+        <v>0.002565693311836981</v>
       </c>
       <c r="J13">
-        <v>0.107108363713813</v>
+        <v>3.122421448632224</v>
       </c>
       <c r="K13">
-        <v>3.694435859725843</v>
+        <v>19.20531942921502</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2909757528955055</v>
       </c>
       <c r="M13">
-        <v>0.895901791219778</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6630761151151248</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3326121120083769</v>
+        <v>5.494584521201489</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1032248879164612</v>
+        <v>0.1448804816261813</v>
       </c>
       <c r="E14">
-        <v>0.09221264946712537</v>
+        <v>0.1399661460337951</v>
       </c>
       <c r="F14">
-        <v>1.573158327988196</v>
+        <v>5.414641407756363</v>
       </c>
       <c r="G14">
-        <v>1.250421544952331</v>
+        <v>5.783026857776974</v>
       </c>
       <c r="H14">
-        <v>0.7274646754297862</v>
+        <v>0.2469090780179357</v>
       </c>
       <c r="I14">
-        <v>0.2308482812335377</v>
+        <v>0.002371784972838853</v>
       </c>
       <c r="J14">
-        <v>0.1060473902525203</v>
+        <v>2.885050994506457</v>
       </c>
       <c r="K14">
-        <v>3.62648388479596</v>
+        <v>18.88634122454641</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2351469681280349</v>
       </c>
       <c r="M14">
-        <v>0.8797455744000828</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6715521108225815</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3290335892791916</v>
+        <v>5.43521164972185</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1022870354004439</v>
+        <v>0.1447980193700076</v>
       </c>
       <c r="E15">
-        <v>0.09152674772712643</v>
+        <v>0.1358775348482268</v>
       </c>
       <c r="F15">
-        <v>1.561184242193093</v>
+        <v>5.259432296825281</v>
       </c>
       <c r="G15">
-        <v>1.239921393261881</v>
+        <v>5.626681702213773</v>
       </c>
       <c r="H15">
-        <v>0.7234542011111387</v>
+        <v>0.2561985779491778</v>
       </c>
       <c r="I15">
-        <v>0.2318061630680646</v>
+        <v>0.002360979223387183</v>
       </c>
       <c r="J15">
-        <v>0.1054019649872515</v>
+        <v>2.809457511223457</v>
       </c>
       <c r="K15">
-        <v>3.584937458732838</v>
+        <v>18.71695796697765</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2220030986893278</v>
       </c>
       <c r="M15">
-        <v>0.8698703514153365</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6767749870573478</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3085385467181538</v>
+        <v>5.094602465416926</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09693909701672254</v>
+        <v>0.1362668005419891</v>
       </c>
       <c r="E16">
-        <v>0.08763713613427981</v>
+        <v>0.1285121349817757</v>
       </c>
       <c r="F16">
-        <v>1.493718965651013</v>
+        <v>4.938902107218382</v>
       </c>
       <c r="G16">
-        <v>1.180791530864383</v>
+        <v>5.265494956917735</v>
       </c>
       <c r="H16">
-        <v>0.70101479573745</v>
+        <v>0.2311499438998794</v>
       </c>
       <c r="I16">
-        <v>0.2374928420594458</v>
+        <v>0.001876167382591554</v>
       </c>
       <c r="J16">
-        <v>0.1017692801515366</v>
+        <v>2.640085129294675</v>
       </c>
       <c r="K16">
-        <v>3.34795459572598</v>
+        <v>17.58794607820835</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2101900940075758</v>
       </c>
       <c r="M16">
-        <v>0.8135844062743303</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7071723417417148</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2959747509461579</v>
+        <v>4.885989206660724</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09368087173520223</v>
+        <v>0.1282321199397032</v>
       </c>
       <c r="E17">
-        <v>0.08528609103181495</v>
+        <v>0.1305791600313482</v>
       </c>
       <c r="F17">
-        <v>1.453314314245191</v>
+        <v>4.953725113008488</v>
       </c>
       <c r="G17">
-        <v>1.145403564462498</v>
+        <v>5.242613929639163</v>
       </c>
       <c r="H17">
-        <v>0.6877134332757748</v>
+        <v>0.188250574577367</v>
       </c>
       <c r="I17">
-        <v>0.2411531649075016</v>
+        <v>0.001730364263808681</v>
       </c>
       <c r="J17">
-        <v>0.09959726091990717</v>
+        <v>2.634248145124616</v>
       </c>
       <c r="K17">
-        <v>3.203490341661904</v>
+        <v>16.89909165923973</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2277775931599635</v>
       </c>
       <c r="M17">
-        <v>0.7793103276305686</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7262272082437438</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2887512159279595</v>
+        <v>4.765853761230915</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09181469643475282</v>
+        <v>0.1205286793319331</v>
       </c>
       <c r="E18">
-        <v>0.08394616006973621</v>
+        <v>0.1458538520895551</v>
       </c>
       <c r="F18">
-        <v>1.430418253240987</v>
+        <v>5.261972669882255</v>
       </c>
       <c r="G18">
-        <v>1.125358281447447</v>
+        <v>5.509311965064342</v>
       </c>
       <c r="H18">
-        <v>0.6802258548996178</v>
+        <v>0.1360929348671931</v>
       </c>
       <c r="I18">
-        <v>0.24331987806152</v>
+        <v>0.00144273386403615</v>
       </c>
       <c r="J18">
-        <v>0.09836783386772652</v>
+        <v>2.768793819135283</v>
       </c>
       <c r="K18">
-        <v>3.120709648037348</v>
+        <v>16.43940800148988</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2835965440824069</v>
       </c>
       <c r="M18">
-        <v>0.7596843267851625</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7373329007333806</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2863058841010258</v>
+        <v>4.725392223403674</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.091184154413817</v>
+        <v>0.1149984827445181</v>
       </c>
       <c r="E19">
-        <v>0.08349454707875736</v>
+        <v>0.1784284115093371</v>
       </c>
       <c r="F19">
-        <v>1.422723436253833</v>
+        <v>5.79860029904151</v>
       </c>
       <c r="G19">
-        <v>1.118622814110026</v>
+        <v>6.001472653849362</v>
       </c>
       <c r="H19">
-        <v>0.6777179819122807</v>
+        <v>0.09730323300900068</v>
       </c>
       <c r="I19">
-        <v>0.2440638754808084</v>
+        <v>0.001548324453005456</v>
       </c>
       <c r="J19">
-        <v>0.09795489863546436</v>
+        <v>3.011937712002975</v>
       </c>
       <c r="K19">
-        <v>3.092732641867826</v>
+        <v>16.33392900694525</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3838044634059372</v>
       </c>
       <c r="M19">
-        <v>0.7530537517689808</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7411177988630469</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2973118831471595</v>
+        <v>4.908164011714973</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09402689160476285</v>
+        <v>0.1154216247325675</v>
       </c>
       <c r="E20">
-        <v>0.0855350752592976</v>
+        <v>0.2585675090683424</v>
       </c>
       <c r="F20">
-        <v>1.457579505513038</v>
+        <v>6.976727846110094</v>
       </c>
       <c r="G20">
-        <v>1.149138330758518</v>
+        <v>7.128129990040975</v>
       </c>
       <c r="H20">
-        <v>0.6891123456350954</v>
+        <v>0.09532722854543696</v>
       </c>
       <c r="I20">
-        <v>0.240757125457975</v>
+        <v>0.001719905061372096</v>
       </c>
       <c r="J20">
-        <v>0.09982640053044634</v>
+        <v>3.560433078107678</v>
       </c>
       <c r="K20">
-        <v>3.21883602223653</v>
+        <v>16.9671888190984</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.606425293484449</v>
       </c>
       <c r="M20">
-        <v>0.782949661479023</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7241836086288709</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3343283449416958</v>
+        <v>5.523485428345793</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1036750986091164</v>
+        <v>0.1284081784999476</v>
       </c>
       <c r="E21">
-        <v>0.0925423050691343</v>
+        <v>0.2993933990430762</v>
       </c>
       <c r="F21">
-        <v>1.578921296897406</v>
+        <v>7.980648864520219</v>
       </c>
       <c r="G21">
-        <v>1.255475723572943</v>
+        <v>8.178765495811149</v>
       </c>
       <c r="H21">
-        <v>0.729397702583384</v>
+        <v>0.1281884954576551</v>
       </c>
       <c r="I21">
-        <v>0.2303925077472755</v>
+        <v>0.002702293240917086</v>
       </c>
       <c r="J21">
-        <v>0.1063580906868609</v>
+        <v>4.061080806312646</v>
       </c>
       <c r="K21">
-        <v>3.646427007597197</v>
+        <v>19.05308145429098</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7086980163247318</v>
       </c>
       <c r="M21">
-        <v>0.8844866473486093</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6690560049190211</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3585583793660305</v>
+        <v>5.926508323456915</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1100600763397779</v>
+        <v>0.1374960420374514</v>
       </c>
       <c r="E22">
-        <v>0.09724426319371204</v>
+        <v>0.3230185933620042</v>
       </c>
       <c r="F22">
-        <v>1.661672549870644</v>
+        <v>8.607766969494492</v>
       </c>
       <c r="G22">
-        <v>1.328092333741125</v>
+        <v>8.841316324937623</v>
       </c>
       <c r="H22">
-        <v>0.7573467247532335</v>
+        <v>0.1513498415044694</v>
       </c>
       <c r="I22">
-        <v>0.2242027981845425</v>
+        <v>0.00352855715932332</v>
       </c>
       <c r="J22">
-        <v>0.1108236856351965</v>
+        <v>4.376381649275402</v>
       </c>
       <c r="K22">
-        <v>3.929219005476</v>
+        <v>20.33691491389095</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7664783002926896</v>
       </c>
       <c r="M22">
-        <v>0.9517661202058179</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6344078913707847</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3456222801280546</v>
+        <v>5.710813434058082</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1066445651068051</v>
+        <v>0.1325881221809784</v>
       </c>
       <c r="E23">
-        <v>0.09472290756892576</v>
+        <v>0.3103045373344138</v>
       </c>
       <c r="F23">
-        <v>1.617171423485246</v>
+        <v>8.271332863198438</v>
       </c>
       <c r="G23">
-        <v>1.289031293435272</v>
+        <v>8.485822187549502</v>
       </c>
       <c r="H23">
-        <v>0.7422729380999442</v>
+        <v>0.1387295557221382</v>
       </c>
       <c r="I23">
-        <v>0.2274510136498407</v>
+        <v>0.002715884000282998</v>
       </c>
       <c r="J23">
-        <v>0.1084212956333843</v>
+        <v>4.207190886922092</v>
       </c>
       <c r="K23">
-        <v>3.777953410671728</v>
+        <v>19.56216501873081</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7354258052211549</v>
       </c>
       <c r="M23">
-        <v>0.9157665552511318</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6527696960323421</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2967073671886027</v>
+        <v>4.897578964284605</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09387043424969477</v>
+        <v>0.1151393753269723</v>
       </c>
       <c r="E24">
-        <v>0.0854224731318034</v>
+        <v>0.2642432824750358</v>
       </c>
       <c r="F24">
-        <v>1.455650179134878</v>
+        <v>7.032001034096083</v>
       </c>
       <c r="G24">
-        <v>1.147448913273706</v>
+        <v>7.177279940208336</v>
       </c>
       <c r="H24">
-        <v>0.6884794021986238</v>
+        <v>0.09617679615136687</v>
       </c>
       <c r="I24">
-        <v>0.2409359811078318</v>
+        <v>0.001218407944047151</v>
       </c>
       <c r="J24">
-        <v>0.09972274662462866</v>
+        <v>3.584738521977442</v>
       </c>
       <c r="K24">
-        <v>3.211897393490574</v>
+        <v>16.79929515435543</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.6221053191919879</v>
       </c>
       <c r="M24">
-        <v>0.7813040752499631</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7251070512057005</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2440464714827613</v>
+        <v>4.024421293533976</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08038783866491173</v>
+        <v>0.09806278353466524</v>
       </c>
       <c r="E25">
-        <v>0.07585565078047907</v>
+        <v>0.2178434071125359</v>
       </c>
       <c r="F25">
-        <v>1.294374734396072</v>
+        <v>5.752025465677605</v>
       </c>
       <c r="G25">
-        <v>1.006364427633898</v>
+        <v>5.827371327047786</v>
       </c>
       <c r="H25">
-        <v>0.636605995017959</v>
+        <v>0.05903449291687313</v>
       </c>
       <c r="I25">
-        <v>0.2578102516890066</v>
+        <v>0.001477616286072347</v>
       </c>
       <c r="J25">
-        <v>0.09108964270571107</v>
+        <v>2.943303259382333</v>
       </c>
       <c r="K25">
-        <v>2.612947385685572</v>
+        <v>13.86295033852377</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5066886573275582</v>
       </c>
       <c r="M25">
-        <v>0.639544409052661</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8086704387177708</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.382579823018773</v>
+        <v>3.37857627820955</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08644107692664171</v>
+        <v>0.07463712010203416</v>
       </c>
       <c r="E2">
-        <v>0.1855367296028589</v>
+        <v>0.1754721809698552</v>
       </c>
       <c r="F2">
-        <v>4.843741645566041</v>
+        <v>4.829143192437755</v>
       </c>
       <c r="G2">
-        <v>4.870329703439722</v>
+        <v>4.828057903450429</v>
       </c>
       <c r="H2">
-        <v>0.03721719658865652</v>
+        <v>0.03127130209739892</v>
       </c>
       <c r="I2">
-        <v>0.00226091685459906</v>
+        <v>0.003056644453686808</v>
       </c>
       <c r="J2">
-        <v>2.489147209648422</v>
+        <v>2.567841302809143</v>
       </c>
       <c r="K2">
-        <v>11.52412880593573</v>
+        <v>3.741100261597467</v>
       </c>
       <c r="L2">
-        <v>0.4256362540949681</v>
+        <v>1.269282526755489</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.534465596699633</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4134355882329857</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.948045210902649</v>
+        <v>2.947339705354125</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07894329022095725</v>
+        <v>0.0689015604561396</v>
       </c>
       <c r="E3">
-        <v>0.1644109682966821</v>
+        <v>0.1559592154395268</v>
       </c>
       <c r="F3">
-        <v>4.243472435771224</v>
+        <v>4.238279835335874</v>
       </c>
       <c r="G3">
-        <v>4.238193391804231</v>
+        <v>4.200550525105911</v>
       </c>
       <c r="H3">
-        <v>0.02507066663687363</v>
+        <v>0.02079136496466472</v>
       </c>
       <c r="I3">
-        <v>0.003740881385943418</v>
+        <v>0.004025344732915048</v>
       </c>
       <c r="J3">
-        <v>2.189547463404892</v>
+        <v>2.271878657713899</v>
       </c>
       <c r="K3">
-        <v>10.07224184298005</v>
+        <v>3.255618611089332</v>
       </c>
       <c r="L3">
-        <v>0.3723690448694441</v>
+        <v>1.074118159501481</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.367805833580917</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3623438807568675</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681048148417744</v>
+        <v>2.681821740710859</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07446738459949476</v>
+        <v>0.06545805178778696</v>
       </c>
       <c r="E4">
-        <v>0.1517100496775434</v>
+        <v>0.1441918499664716</v>
       </c>
       <c r="F4">
-        <v>3.880747117651367</v>
+        <v>3.880293236380027</v>
       </c>
       <c r="G4">
-        <v>3.856335768909048</v>
+        <v>3.821454762133584</v>
       </c>
       <c r="H4">
-        <v>0.0186869751665113</v>
+        <v>0.01530917793717335</v>
       </c>
       <c r="I4">
-        <v>0.004900121160077653</v>
+        <v>0.004739054703571277</v>
       </c>
       <c r="J4">
-        <v>2.008751657049174</v>
+        <v>2.091714482009166</v>
       </c>
       <c r="K4">
-        <v>9.189783335065925</v>
+        <v>2.961614114354106</v>
       </c>
       <c r="L4">
-        <v>0.3402613853406535</v>
+        <v>0.9572798346559495</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.266105139427864</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3314706653451367</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.572190666577455</v>
+        <v>2.573431318137295</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07266784660029479</v>
+        <v>0.06406917040171933</v>
       </c>
       <c r="E5">
-        <v>0.1465879097053993</v>
+        <v>0.1394385035669181</v>
       </c>
       <c r="F5">
-        <v>3.73417828700633</v>
+        <v>3.735433344842846</v>
       </c>
       <c r="G5">
-        <v>3.702060376390193</v>
+        <v>3.668295359516236</v>
       </c>
       <c r="H5">
-        <v>0.01632540084989542</v>
+        <v>0.01328899472289446</v>
       </c>
       <c r="I5">
-        <v>0.005492125352045463</v>
+        <v>0.005143464472314285</v>
       </c>
       <c r="J5">
-        <v>1.935754294215798</v>
+        <v>2.018620358215856</v>
       </c>
       <c r="K5">
-        <v>8.853051793186836</v>
+        <v>2.849965454661415</v>
       </c>
       <c r="L5">
-        <v>0.3272983614835141</v>
+        <v>0.9127747871723102</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.227799715848974</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3189897005438382</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554139934485761</v>
+        <v>2.555426853162203</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07237030113429554</v>
+        <v>0.06383927237786402</v>
       </c>
       <c r="E6">
-        <v>0.1457402244321564</v>
+        <v>0.1386514237972776</v>
       </c>
       <c r="F6">
-        <v>3.709909657586877</v>
+        <v>3.71143610498001</v>
       </c>
       <c r="G6">
-        <v>3.676516991454093</v>
+        <v>3.642936981961384</v>
       </c>
       <c r="H6">
-        <v>0.01594691657199387</v>
+        <v>0.0129657534381179</v>
       </c>
       <c r="I6">
-        <v>0.005678592604683175</v>
+        <v>0.005326341803723267</v>
       </c>
       <c r="J6">
-        <v>1.923670924583377</v>
+        <v>2.006500853764635</v>
       </c>
       <c r="K6">
-        <v>8.822774377572443</v>
+        <v>2.840268242994924</v>
       </c>
       <c r="L6">
-        <v>0.3251523680549298</v>
+        <v>0.908325479534895</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.225121752171816</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3169226054438568</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679674505376852</v>
+        <v>2.680378805135717</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07444302604310593</v>
+        <v>0.06541972705361587</v>
       </c>
       <c r="E7">
-        <v>0.1516407717419668</v>
+        <v>0.1441982538474207</v>
       </c>
       <c r="F7">
-        <v>3.878765680776098</v>
+        <v>3.869715756539392</v>
       </c>
       <c r="G7">
-        <v>3.854250058106459</v>
+        <v>3.824797100287242</v>
       </c>
       <c r="H7">
-        <v>0.01865419304861748</v>
+        <v>0.01524970416943217</v>
       </c>
       <c r="I7">
-        <v>0.00512629853047919</v>
+        <v>0.005038490317038402</v>
       </c>
       <c r="J7">
-        <v>2.007764587756782</v>
+        <v>2.06970546050087</v>
       </c>
       <c r="K7">
-        <v>9.255134397703159</v>
+        <v>2.984205148036352</v>
       </c>
       <c r="L7">
-        <v>0.3400861079788768</v>
+        <v>0.9646831569641563</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.2756133355836</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3310765327338032</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.232954425217486</v>
+        <v>3.23007157908944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08382440846063233</v>
+        <v>0.07258387089147433</v>
       </c>
       <c r="E8">
-        <v>0.1781873124813487</v>
+        <v>0.1689319843785491</v>
       </c>
       <c r="F8">
-        <v>4.635414111242568</v>
+        <v>4.595283313556877</v>
       </c>
       <c r="G8">
-        <v>4.650912060183828</v>
+        <v>4.628437992885779</v>
       </c>
       <c r="H8">
-        <v>0.03278690322608835</v>
+        <v>0.02731019384841327</v>
       </c>
       <c r="I8">
-        <v>0.002983637295443486</v>
+        <v>0.003722201397029501</v>
       </c>
       <c r="J8">
-        <v>2.385115868694072</v>
+        <v>2.395027776571567</v>
       </c>
       <c r="K8">
-        <v>11.11520447974803</v>
+        <v>3.605289617470902</v>
       </c>
       <c r="L8">
-        <v>0.4071268520156934</v>
+        <v>1.212390714097324</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.490119735010012</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3949300952347556</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.317762104430585</v>
+        <v>4.30264391201348</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1036348287171585</v>
+        <v>0.0875927730962065</v>
       </c>
       <c r="E9">
-        <v>0.233126868759463</v>
+        <v>0.2194650727602863</v>
       </c>
       <c r="F9">
-        <v>6.176993118630492</v>
+        <v>6.096755555052283</v>
       </c>
       <c r="G9">
-        <v>6.275392449412777</v>
+        <v>6.245615560576198</v>
       </c>
       <c r="H9">
-        <v>0.07056676174276522</v>
+        <v>0.05990526615112302</v>
       </c>
       <c r="I9">
-        <v>0.0007709237986635031</v>
+        <v>0.001750839932975978</v>
       </c>
       <c r="J9">
-        <v>3.156094402189296</v>
+        <v>3.124319187022877</v>
       </c>
       <c r="K9">
-        <v>14.71684120082568</v>
+        <v>4.812748387863422</v>
       </c>
       <c r="L9">
-        <v>0.5448403081499009</v>
+        <v>1.707007242616882</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.898641978828692</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5261450923577371</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.117536575218594</v>
+        <v>5.088379665885782</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1198063960202376</v>
+        <v>0.09971616432929054</v>
       </c>
       <c r="E10">
-        <v>0.2683913807959932</v>
+        <v>0.2515039815685256</v>
       </c>
       <c r="F10">
-        <v>7.272120155025476</v>
+        <v>7.101787640555102</v>
       </c>
       <c r="G10">
-        <v>7.442547316948037</v>
+        <v>7.439033969422326</v>
       </c>
       <c r="H10">
-        <v>0.1051698554768272</v>
+        <v>0.0893742509218729</v>
       </c>
       <c r="I10">
-        <v>0.001201653847853201</v>
+        <v>0.001279931822017133</v>
       </c>
       <c r="J10">
-        <v>3.709682687645852</v>
+        <v>3.509179810824605</v>
       </c>
       <c r="K10">
-        <v>17.46403937377971</v>
+        <v>5.735045842027631</v>
       </c>
       <c r="L10">
-        <v>0.6302013755323657</v>
+        <v>2.089944884526062</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.208521902997489</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6046562368071164</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.483227921780895</v>
+        <v>5.445722319817833</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.130038087071803</v>
+        <v>0.1077601349178074</v>
       </c>
       <c r="E11">
-        <v>0.2227492848037578</v>
+        <v>0.2061464491278926</v>
       </c>
       <c r="F11">
-        <v>6.997349043560007</v>
+        <v>6.717485047615384</v>
       </c>
       <c r="G11">
-        <v>7.258699983597182</v>
+        <v>7.328332366489178</v>
       </c>
       <c r="H11">
-        <v>0.1255965978854405</v>
+        <v>0.1086058850847564</v>
       </c>
       <c r="I11">
-        <v>0.0023677294247193</v>
+        <v>0.00177571227867368</v>
       </c>
       <c r="J11">
-        <v>3.611155477198622</v>
+        <v>3.146932914722015</v>
       </c>
       <c r="K11">
-        <v>18.85368032969518</v>
+        <v>6.202209118983262</v>
       </c>
       <c r="L11">
-        <v>0.4954653383840935</v>
+        <v>2.28265502974719</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.367332736035422</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.468571434640296</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.621657906775965</v>
+        <v>5.580955086518316</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1372015883282174</v>
+        <v>0.1135339519395231</v>
       </c>
       <c r="E12">
-        <v>0.1868420982965926</v>
+        <v>0.1705945345755957</v>
       </c>
       <c r="F12">
-        <v>6.537297347214093</v>
+        <v>6.22164924519501</v>
       </c>
       <c r="G12">
-        <v>6.856683988998157</v>
+        <v>6.960394185233895</v>
       </c>
       <c r="H12">
-        <v>0.1597284507905101</v>
+        <v>0.1430411190788661</v>
       </c>
       <c r="I12">
-        <v>0.002685594657288348</v>
+        <v>0.001745455916830174</v>
       </c>
       <c r="J12">
-        <v>3.410452785082896</v>
+        <v>2.84778406374312</v>
       </c>
       <c r="K12">
-        <v>19.31862268951397</v>
+        <v>6.357694151093199</v>
       </c>
       <c r="L12">
-        <v>0.3859388602192269</v>
+        <v>2.348233783844563</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.418916410462685</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3605061285096838</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.591767537635917</v>
+        <v>5.551814712942132</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1421674211876152</v>
+        <v>0.1184221950327142</v>
       </c>
       <c r="E13">
-        <v>0.15673074738657</v>
+        <v>0.1411010603146892</v>
       </c>
       <c r="F13">
-        <v>5.915059492535448</v>
+        <v>5.634109585578585</v>
       </c>
       <c r="G13">
-        <v>6.269686224682289</v>
+        <v>6.366703897505772</v>
       </c>
       <c r="H13">
-        <v>0.2059451229343097</v>
+        <v>0.1908027287341696</v>
       </c>
       <c r="I13">
-        <v>0.002565693311836981</v>
+        <v>0.001695596200718796</v>
       </c>
       <c r="J13">
-        <v>3.122421448632224</v>
+        <v>2.617818176560831</v>
       </c>
       <c r="K13">
-        <v>19.20531942921502</v>
+        <v>6.319664415238549</v>
       </c>
       <c r="L13">
-        <v>0.2909757528955055</v>
+        <v>2.332479451636175</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.406027843523361</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.269085523784284</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.494584521201489</v>
+        <v>5.45684162663531</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1448804816261813</v>
+        <v>0.1219801995546064</v>
       </c>
       <c r="E14">
-        <v>0.1399661460337951</v>
+        <v>0.1250296478556789</v>
       </c>
       <c r="F14">
-        <v>5.414641407756363</v>
+        <v>5.1846870116118</v>
       </c>
       <c r="G14">
-        <v>5.783026857776974</v>
+        <v>5.858904479540456</v>
       </c>
       <c r="H14">
-        <v>0.2469090780179357</v>
+        <v>0.2332833293726395</v>
       </c>
       <c r="I14">
-        <v>0.002371784972838853</v>
+        <v>0.001748908434888286</v>
       </c>
       <c r="J14">
-        <v>2.885050994506457</v>
+        <v>2.481957303063439</v>
       </c>
       <c r="K14">
-        <v>18.88634122454641</v>
+        <v>6.213071649815447</v>
       </c>
       <c r="L14">
-        <v>0.2351469681280349</v>
+        <v>2.287358333279428</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.370820410979263</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.216262448023496</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.43521164972185</v>
+        <v>5.398696030793076</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1447980193700076</v>
+        <v>0.1225295980356123</v>
       </c>
       <c r="E15">
-        <v>0.1358775348482268</v>
+        <v>0.1212671244400085</v>
       </c>
       <c r="F15">
-        <v>5.259432296825281</v>
+        <v>5.053294135820153</v>
       </c>
       <c r="G15">
-        <v>5.626681702213773</v>
+        <v>5.690651292603718</v>
       </c>
       <c r="H15">
-        <v>0.2561985779491778</v>
+        <v>0.2431781093899161</v>
       </c>
       <c r="I15">
-        <v>0.002360979223387183</v>
+        <v>0.001898833611655881</v>
       </c>
       <c r="J15">
-        <v>2.809457511223457</v>
+        <v>2.457030948588169</v>
       </c>
       <c r="K15">
-        <v>18.71695796697765</v>
+        <v>6.156750465584253</v>
       </c>
       <c r="L15">
-        <v>0.2220030986893278</v>
+        <v>2.262940954596274</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.352769955851244</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2041281211313191</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.094602465416926</v>
+        <v>5.065248474393343</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1362668005419891</v>
+        <v>0.117476065767022</v>
       </c>
       <c r="E16">
-        <v>0.1285121349817757</v>
+        <v>0.1152811990032054</v>
       </c>
       <c r="F16">
-        <v>4.938902107218382</v>
+        <v>4.830498332935662</v>
       </c>
       <c r="G16">
-        <v>5.265494956917735</v>
+        <v>5.273741418961549</v>
       </c>
       <c r="H16">
-        <v>0.2311499438998794</v>
+        <v>0.220399829357774</v>
       </c>
       <c r="I16">
-        <v>0.001876167382591554</v>
+        <v>0.002132965868623771</v>
       </c>
       <c r="J16">
-        <v>2.640085129294675</v>
+        <v>2.509450517276548</v>
       </c>
       <c r="K16">
-        <v>17.58794607820835</v>
+        <v>5.778888397600923</v>
       </c>
       <c r="L16">
-        <v>0.2101900940075758</v>
+        <v>2.103758719287669</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.227478206699942</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1951649575973384</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.885989206660724</v>
+        <v>4.860634695955184</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1282321199397032</v>
+        <v>0.1110362990251161</v>
       </c>
       <c r="E17">
-        <v>0.1305791600313482</v>
+        <v>0.1178383465732784</v>
       </c>
       <c r="F17">
-        <v>4.953725113008488</v>
+        <v>4.884496435202635</v>
       </c>
       <c r="G17">
-        <v>5.242613929639163</v>
+        <v>5.226223996099577</v>
       </c>
       <c r="H17">
-        <v>0.188250574577367</v>
+        <v>0.1783864731421829</v>
       </c>
       <c r="I17">
-        <v>0.001730364263808681</v>
+        <v>0.002343139872900579</v>
       </c>
       <c r="J17">
-        <v>2.634248145124616</v>
+        <v>2.59792992308769</v>
       </c>
       <c r="K17">
-        <v>16.89909165923973</v>
+        <v>5.54813564119155</v>
       </c>
       <c r="L17">
-        <v>0.2277775931599635</v>
+        <v>2.006833797062015</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.15084948581827</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2134883980238556</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.765853761230915</v>
+        <v>4.742859392049979</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1205286793319331</v>
+        <v>0.1037832023078025</v>
       </c>
       <c r="E18">
-        <v>0.1458538520895551</v>
+        <v>0.1328685558816805</v>
       </c>
       <c r="F18">
-        <v>5.261972669882255</v>
+        <v>5.205165074372815</v>
       </c>
       <c r="G18">
-        <v>5.509311965064342</v>
+        <v>5.479878724718617</v>
       </c>
       <c r="H18">
-        <v>0.1360929348671931</v>
+        <v>0.1261941642468898</v>
       </c>
       <c r="I18">
-        <v>0.00144273386403615</v>
+        <v>0.002176283410921798</v>
       </c>
       <c r="J18">
-        <v>2.768793819135283</v>
+        <v>2.770789161065807</v>
       </c>
       <c r="K18">
-        <v>16.43940800148988</v>
+        <v>5.393326535686356</v>
       </c>
       <c r="L18">
-        <v>0.2835965440824069</v>
+        <v>1.94342675023924</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.09794918413651</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2686409892463715</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.725392223403674</v>
+        <v>4.703025162701522</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1149984827445181</v>
+        <v>0.09793865729096041</v>
       </c>
       <c r="E19">
-        <v>0.1784284115093371</v>
+        <v>0.1645866187219376</v>
       </c>
       <c r="F19">
-        <v>5.79860029904151</v>
+        <v>5.738121336269501</v>
       </c>
       <c r="G19">
-        <v>6.001472653849362</v>
+        <v>5.964370226962274</v>
       </c>
       <c r="H19">
-        <v>0.09730323300900068</v>
+        <v>0.08656396380733611</v>
       </c>
       <c r="I19">
-        <v>0.001548324453005456</v>
+        <v>0.002359535199591534</v>
       </c>
       <c r="J19">
-        <v>3.011937712002975</v>
+        <v>3.020722773926934</v>
       </c>
       <c r="K19">
-        <v>16.33392900694525</v>
+        <v>5.35829916697574</v>
       </c>
       <c r="L19">
-        <v>0.3838044634059372</v>
+        <v>1.928117299238664</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.086916665365081</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3669924537824514</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.908164011714973</v>
+        <v>4.882413673457791</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1154216247325675</v>
+        <v>0.09648794731188381</v>
       </c>
       <c r="E20">
-        <v>0.2585675090683424</v>
+        <v>0.242325299311517</v>
       </c>
       <c r="F20">
-        <v>6.976727846110094</v>
+        <v>6.863489392432939</v>
       </c>
       <c r="G20">
-        <v>7.128129990040975</v>
+        <v>7.097783976640642</v>
       </c>
       <c r="H20">
-        <v>0.09532722854543696</v>
+        <v>0.08122924035677048</v>
       </c>
       <c r="I20">
-        <v>0.001719905061372096</v>
+        <v>0.002293599022408443</v>
       </c>
       <c r="J20">
-        <v>3.560433078107678</v>
+        <v>3.482928941425939</v>
       </c>
       <c r="K20">
-        <v>16.9671888190984</v>
+        <v>5.570893123944472</v>
       </c>
       <c r="L20">
-        <v>0.606425293484449</v>
+        <v>2.016499337399807</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.158299005326782</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.583687234626737</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.523485428345793</v>
+        <v>5.484826355133521</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1284081784999476</v>
+        <v>0.1061131652475833</v>
       </c>
       <c r="E21">
-        <v>0.2993933990430762</v>
+        <v>0.2816161315835437</v>
       </c>
       <c r="F21">
-        <v>7.980648864520219</v>
+        <v>7.615931049915588</v>
       </c>
       <c r="G21">
-        <v>8.178765495811149</v>
+        <v>8.274845316680342</v>
       </c>
       <c r="H21">
-        <v>0.1281884954576551</v>
+        <v>0.1078449800659662</v>
       </c>
       <c r="I21">
-        <v>0.002702293240917086</v>
+        <v>0.002053564269795416</v>
       </c>
       <c r="J21">
-        <v>4.061080806312646</v>
+        <v>3.44030831329593</v>
       </c>
       <c r="K21">
-        <v>19.05308145429098</v>
+        <v>6.269646845388763</v>
       </c>
       <c r="L21">
-        <v>0.7086980163247318</v>
+        <v>2.309618161752979</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.391090112649778</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6745260017952859</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.926508323456915</v>
+        <v>5.878322507906546</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1374960420374514</v>
+        <v>0.1131793387107223</v>
       </c>
       <c r="E22">
-        <v>0.3230185933620042</v>
+        <v>0.3043523580594751</v>
       </c>
       <c r="F22">
-        <v>8.607766969494492</v>
+        <v>8.058431559841893</v>
       </c>
       <c r="G22">
-        <v>8.841316324937623</v>
+        <v>9.031590395245473</v>
       </c>
       <c r="H22">
-        <v>0.1513498415044694</v>
+        <v>0.1263556614524219</v>
       </c>
       <c r="I22">
-        <v>0.00352855715932332</v>
+        <v>0.001713660668845485</v>
       </c>
       <c r="J22">
-        <v>4.376381649275402</v>
+        <v>3.370134788781058</v>
       </c>
       <c r="K22">
-        <v>20.33691491389095</v>
+        <v>6.69776888731144</v>
       </c>
       <c r="L22">
-        <v>0.7664783002926896</v>
+        <v>2.492138791216689</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.531456330504682</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7240910540703425</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.710813434058082</v>
+        <v>5.668198652478793</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1325881221809784</v>
+        <v>0.1092882301036759</v>
       </c>
       <c r="E23">
-        <v>0.3103045373344138</v>
+        <v>0.2918994228346783</v>
       </c>
       <c r="F23">
-        <v>8.271332863198438</v>
+        <v>7.845613814060272</v>
       </c>
       <c r="G23">
-        <v>8.485822187549502</v>
+        <v>8.610155551757828</v>
       </c>
       <c r="H23">
-        <v>0.1387295557221382</v>
+        <v>0.116463186965607</v>
       </c>
       <c r="I23">
-        <v>0.002715884000282998</v>
+        <v>0.001505583518328635</v>
       </c>
       <c r="J23">
-        <v>4.207190886922092</v>
+        <v>3.461191259103543</v>
       </c>
       <c r="K23">
-        <v>19.56216501873081</v>
+        <v>6.438451105679064</v>
       </c>
       <c r="L23">
-        <v>0.7354258052211549</v>
+        <v>2.38361101330571</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.444496692596061</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6981658562081066</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.897578964284605</v>
+        <v>4.872433106036908</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1151393753269723</v>
+        <v>0.09620328979834802</v>
       </c>
       <c r="E24">
-        <v>0.2642432824750358</v>
+        <v>0.2478960578038745</v>
       </c>
       <c r="F24">
-        <v>7.032001034096083</v>
+        <v>6.919522170454542</v>
       </c>
       <c r="G24">
-        <v>7.177279940208336</v>
+        <v>7.145278426721404</v>
       </c>
       <c r="H24">
-        <v>0.09617679615136687</v>
+        <v>0.08197402753155103</v>
       </c>
       <c r="I24">
-        <v>0.001218407944047151</v>
+        <v>0.001704931355386741</v>
       </c>
       <c r="J24">
-        <v>3.584738521977442</v>
+        <v>3.510902888727628</v>
       </c>
       <c r="K24">
-        <v>16.79929515435543</v>
+        <v>5.513065322093922</v>
       </c>
       <c r="L24">
-        <v>0.6221053191919879</v>
+        <v>1.99532417274024</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.136118663916704</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5991486494800142</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.024421293533976</v>
+        <v>4.013054121371965</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09806278353466524</v>
+        <v>0.08341387097383013</v>
       </c>
       <c r="E25">
-        <v>0.2178434071125359</v>
+        <v>0.2053543275609364</v>
       </c>
       <c r="F25">
-        <v>5.752025465677605</v>
+        <v>5.69675109072503</v>
       </c>
       <c r="G25">
-        <v>5.827371327047786</v>
+        <v>5.791916771299555</v>
       </c>
       <c r="H25">
-        <v>0.05903449291687313</v>
+        <v>0.05002152268213056</v>
       </c>
       <c r="I25">
-        <v>0.001477616286072347</v>
+        <v>0.002670473434842613</v>
       </c>
       <c r="J25">
-        <v>2.943303259382333</v>
+        <v>2.955429519917118</v>
       </c>
       <c r="K25">
-        <v>13.86295033852377</v>
+        <v>4.527650811568236</v>
       </c>
       <c r="L25">
-        <v>0.5066886573275582</v>
+        <v>1.586372249236888</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.805564981904482</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4902482641004156</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
